--- a/data/correlation/regression.xlsx
+++ b/data/correlation/regression.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinoriokubo/Documents/simulator/data/correlation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26231F01-1C4A-1244-839A-C088D3132FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAD84F7-AEF2-054F-A77C-3599754BBABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="15400" xr2:uid="{CA90CC09-E6FD-5A43-8559-1E712E5E9A16}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27900" windowHeight="15400" xr2:uid="{CA90CC09-E6FD-5A43-8559-1E712E5E9A16}"/>
   </bookViews>
   <sheets>
     <sheet name="元データ" sheetId="1" r:id="rId1"/>
     <sheet name="往路運賃" sheetId="3" r:id="rId2"/>
     <sheet name="復路運賃" sheetId="4" r:id="rId3"/>
     <sheet name="新船価格" sheetId="6" r:id="rId4"/>
-    <sheet name="中古船価格" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
+    <sheet name="中古船価格" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="37">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2"/>
@@ -648,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201083BE-F943-2C42-9F81-81E38B44A9E5}">
   <dimension ref="A1:K258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1067,7 +1068,7 @@
         <v>70.106220458766998</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>37956</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>72.070557732281259</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>37987</v>
       </c>
@@ -1085,8 +1086,12 @@
       <c r="I50">
         <v>72.4280742682447</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="K50">
+        <f>1000000*I50</f>
+        <v>72428074.268244699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>38018</v>
       </c>
@@ -1096,8 +1101,12 @@
       <c r="I51">
         <v>73.681852408114494</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="K51">
+        <f t="shared" ref="K51:K114" si="0">1000000*I51</f>
+        <v>73681852.408114493</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>38047</v>
       </c>
@@ -1107,8 +1116,12 @@
       <c r="I52">
         <v>78.070075897658896</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>78070075.897658899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>38078</v>
       </c>
@@ -1118,8 +1131,12 @@
       <c r="I53">
         <v>80.891076712366001</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>80891076.712366</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>38108</v>
       </c>
@@ -1129,8 +1146,12 @@
       <c r="I54">
         <v>82.144854852235795</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>82144854.852235794</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>38139</v>
       </c>
@@ -1140,8 +1161,12 @@
       <c r="I55">
         <v>83.085188457138202</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>83085188.457138196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>38169</v>
       </c>
@@ -1151,8 +1176,12 @@
       <c r="I56">
         <v>83.398632992105703</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>83398632.992105708</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>38200</v>
       </c>
@@ -1162,8 +1191,12 @@
       <c r="I57">
         <v>83.712077527073205</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>83712077.527073205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>38231</v>
       </c>
@@ -1173,8 +1206,12 @@
       <c r="I58">
         <v>85.906189271845307</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>85906189.271845311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>38261</v>
       </c>
@@ -1184,8 +1221,12 @@
       <c r="I59">
         <v>87.473411946682603</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>87473411.946682602</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>38292</v>
       </c>
@@ -1195,8 +1236,12 @@
       <c r="I60">
         <v>88.413745551584995</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>88413745.551584989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>38322</v>
       </c>
@@ -1216,8 +1261,12 @@
       <c r="I61">
         <v>89.980968226422306</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="K61">
+        <f t="shared" si="0"/>
+        <v>89980968.22642231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>38353</v>
       </c>
@@ -1234,8 +1283,12 @@
       <c r="I62">
         <v>92.801969041129396</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>92801969.041129395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>38384</v>
       </c>
@@ -1252,8 +1305,12 @@
       <c r="I63">
         <v>93.115413576096898</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>93115413.576096892</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>38412</v>
       </c>
@@ -1264,14 +1321,18 @@
         <v>7473.75</v>
       </c>
       <c r="E64">
-        <f t="shared" ref="E64:E125" si="0">B64/D64</f>
+        <f t="shared" ref="E64:E125" si="1">B64/D64</f>
         <v>1.0884281015195438E-2</v>
       </c>
       <c r="I64">
         <v>97.817081600608702</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>97817081.600608706</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>38443</v>
       </c>
@@ -1282,14 +1343,18 @@
         <v>7552</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0689973828084799E-2</v>
       </c>
       <c r="I65">
         <v>102.51874962511999</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>102518749.62512</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>38473</v>
       </c>
@@ -1300,14 +1365,18 @@
         <v>7630.25</v>
       </c>
       <c r="E66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.045894533466638E-2</v>
       </c>
       <c r="I66">
         <v>102.205305090153</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>102205305.09015301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>38504</v>
       </c>
@@ -1318,14 +1387,18 @@
         <v>7708.5</v>
       </c>
       <c r="E67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0230631997502355E-2</v>
       </c>
       <c r="I67">
         <v>99.070859740478596</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="K67">
+        <f t="shared" si="0"/>
+        <v>99070859.74047859</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>38534</v>
       </c>
@@ -1336,14 +1409,18 @@
         <v>7786.75</v>
       </c>
       <c r="E68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0175863247111325E-2</v>
       </c>
       <c r="I68">
         <v>97.190192530673798</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="K68">
+        <f t="shared" si="0"/>
+        <v>97190192.530673802</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>38565</v>
       </c>
@@ -1354,14 +1431,18 @@
         <v>7865</v>
       </c>
       <c r="E69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0273315507781489E-2</v>
       </c>
       <c r="I69">
         <v>93.742302646031803</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="K69">
+        <f t="shared" si="0"/>
+        <v>93742302.646031797</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>38596</v>
       </c>
@@ -1372,14 +1453,18 @@
         <v>7943.25</v>
       </c>
       <c r="E70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0270708348544702E-2</v>
       </c>
       <c r="I70">
         <v>90.921301831324698</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="K70">
+        <f t="shared" si="0"/>
+        <v>90921301.831324697</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>38626</v>
       </c>
@@ -1390,14 +1475,18 @@
         <v>8021.5</v>
       </c>
       <c r="E71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0077071210012417E-2</v>
       </c>
       <c r="I71">
         <v>90.294412761389694</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="K71">
+        <f t="shared" si="0"/>
+        <v>90294412.761389688</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>38657</v>
       </c>
@@ -1408,14 +1497,18 @@
         <v>8099.75</v>
       </c>
       <c r="E72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.863152438915725E-3</v>
       </c>
       <c r="I72">
         <v>89.667523691454804</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="K72">
+        <f t="shared" si="0"/>
+        <v>89667523.691454798</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>38687</v>
       </c>
@@ -1429,14 +1522,18 @@
         <v>8178</v>
       </c>
       <c r="E73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8763896872616115E-3</v>
       </c>
       <c r="I73">
         <v>89.040634621519899</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="K73">
+        <f t="shared" si="0"/>
+        <v>89040634.621519893</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>38718</v>
       </c>
@@ -1447,7 +1544,7 @@
         <v>8289.75</v>
       </c>
       <c r="E74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9436701373374417E-3</v>
       </c>
       <c r="F74">
@@ -1456,8 +1553,12 @@
       <c r="I74">
         <v>89.667523691454804</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="K74">
+        <f t="shared" si="0"/>
+        <v>89667523.691454798</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>38749</v>
       </c>
@@ -1468,7 +1569,7 @@
         <v>8401.5</v>
       </c>
       <c r="E75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.7678561883794684E-3</v>
       </c>
       <c r="F75">
@@ -1477,8 +1578,12 @@
       <c r="I75">
         <v>90.921301831324698</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="K75">
+        <f t="shared" si="0"/>
+        <v>90921301.831324697</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>38777</v>
       </c>
@@ -1489,7 +1594,7 @@
         <v>8513.25</v>
       </c>
       <c r="E76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6811163421107252E-3</v>
       </c>
       <c r="F76">
@@ -1498,8 +1603,12 @@
       <c r="I76">
         <v>93.115413576096898</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="K76">
+        <f t="shared" si="0"/>
+        <v>93115413.576096892</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>38808</v>
       </c>
@@ -1510,7 +1619,7 @@
         <v>8625</v>
       </c>
       <c r="E77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.7107575557211119E-3</v>
       </c>
       <c r="F77">
@@ -1519,8 +1628,12 @@
       <c r="I77">
         <v>94.369191715966707</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="K77">
+        <f t="shared" si="0"/>
+        <v>94369191.715966702</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>38838</v>
       </c>
@@ -1531,7 +1644,7 @@
         <v>8736.75</v>
       </c>
       <c r="E78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.884184928232901E-3</v>
       </c>
       <c r="F78">
@@ -1540,8 +1653,12 @@
       <c r="I78">
         <v>95.622969855836502</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="K78">
+        <f t="shared" si="0"/>
+        <v>95622969.855836496</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>38869</v>
       </c>
@@ -1552,7 +1669,7 @@
         <v>8848.5</v>
       </c>
       <c r="E79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6474314288463852E-3</v>
       </c>
       <c r="F79">
@@ -1561,8 +1678,12 @@
       <c r="I79">
         <v>96.876747995706395</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="K79">
+        <f t="shared" si="0"/>
+        <v>96876747.995706394</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>38899</v>
       </c>
@@ -1573,7 +1694,7 @@
         <v>8960.25</v>
       </c>
       <c r="E80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6010803861814667E-3</v>
       </c>
       <c r="F80">
@@ -1582,8 +1703,12 @@
       <c r="I80">
         <v>98.443970670543607</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="K80">
+        <f t="shared" si="0"/>
+        <v>98443970.670543611</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <v>38930</v>
       </c>
@@ -1594,7 +1719,7 @@
         <v>9072</v>
       </c>
       <c r="E81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6047063336902553E-3</v>
       </c>
       <c r="F81">
@@ -1603,8 +1728,12 @@
       <c r="I81">
         <v>99.070859740478596</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="K81">
+        <f t="shared" si="0"/>
+        <v>99070859.74047859</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1">
         <v>38961</v>
       </c>
@@ -1615,7 +1744,7 @@
         <v>9183.75</v>
       </c>
       <c r="E82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4161017000395867E-3</v>
       </c>
       <c r="F82">
@@ -1624,8 +1753,12 @@
       <c r="I82">
         <v>99.384304275445999</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="K82">
+        <f t="shared" si="0"/>
+        <v>99384304.275445998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1">
         <v>38991</v>
       </c>
@@ -1636,7 +1769,7 @@
         <v>9295.5</v>
       </c>
       <c r="E83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1635406952533908E-3</v>
       </c>
       <c r="F83">
@@ -1645,8 +1778,12 @@
       <c r="I83">
         <v>100.638082415315</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="K83">
+        <f t="shared" si="0"/>
+        <v>100638082.415315</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1">
         <v>39022</v>
       </c>
@@ -1657,7 +1794,7 @@
         <v>9407.25</v>
       </c>
       <c r="E84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1618440596280375E-3</v>
       </c>
       <c r="F84">
@@ -1666,8 +1803,12 @@
       <c r="I84">
         <v>100.32463788034801</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="K84">
+        <f t="shared" si="0"/>
+        <v>100324637.88034801</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1">
         <v>39052</v>
       </c>
@@ -1681,7 +1822,7 @@
         <v>9519</v>
       </c>
       <c r="E85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2894722379981195E-3</v>
       </c>
       <c r="F85">
@@ -1690,8 +1831,12 @@
       <c r="I85">
         <v>100.638082415315</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="K85">
+        <f t="shared" si="0"/>
+        <v>100638082.415315</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1">
         <v>39083</v>
       </c>
@@ -1702,7 +1847,7 @@
         <v>9627.5</v>
       </c>
       <c r="E86">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0347987149873125E-3</v>
       </c>
       <c r="F86">
@@ -1711,8 +1856,12 @@
       <c r="I86">
         <v>100.638082415315</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="K86">
+        <f t="shared" si="0"/>
+        <v>100638082.415315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1">
         <v>39114</v>
       </c>
@@ -1723,7 +1872,7 @@
         <v>9736</v>
       </c>
       <c r="E87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0027004732407614E-3</v>
       </c>
       <c r="F87">
@@ -1732,8 +1881,12 @@
       <c r="I87">
         <v>100.638082415315</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="K87">
+        <f t="shared" si="0"/>
+        <v>100638082.415315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1">
         <v>39142</v>
       </c>
@@ -1744,7 +1897,7 @@
         <v>9844.5</v>
       </c>
       <c r="E88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0327287226626141E-3</v>
       </c>
       <c r="F88">
@@ -1753,8 +1906,12 @@
       <c r="I88">
         <v>101.891860555185</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="K88">
+        <f t="shared" si="0"/>
+        <v>101891860.55518501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1">
         <v>39173</v>
       </c>
@@ -1765,7 +1922,7 @@
         <v>9953</v>
       </c>
       <c r="E89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0659197544151054E-3</v>
       </c>
       <c r="F89">
@@ -1774,8 +1931,12 @@
       <c r="I89">
         <v>102.83219416008799</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="K89">
+        <f t="shared" si="0"/>
+        <v>102832194.16008799</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1">
         <v>39203</v>
       </c>
@@ -1786,7 +1947,7 @@
         <v>10061.5</v>
       </c>
       <c r="E90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0321781832385876E-3</v>
       </c>
       <c r="F90">
@@ -1795,8 +1956,12 @@
       <c r="I90">
         <v>104.39941683492501</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="K90">
+        <f t="shared" si="0"/>
+        <v>104399416.83492501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1">
         <v>39234</v>
       </c>
@@ -1807,7 +1972,7 @@
         <v>10170</v>
       </c>
       <c r="E91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9504429210579932E-3</v>
       </c>
       <c r="F91">
@@ -1816,8 +1981,12 @@
       <c r="I91">
         <v>104.39941683492501</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="K91">
+        <f t="shared" si="0"/>
+        <v>104399416.83492501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1">
         <v>39264</v>
       </c>
@@ -1828,7 +1997,7 @@
         <v>10278.5</v>
       </c>
       <c r="E92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0224507189547408E-3</v>
       </c>
       <c r="F92">
@@ -1837,8 +2006,12 @@
       <c r="I92">
         <v>105.02630590486</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="K92">
+        <f t="shared" si="0"/>
+        <v>105026305.90485999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1">
         <v>39295</v>
       </c>
@@ -1849,7 +2022,7 @@
         <v>10387</v>
       </c>
       <c r="E93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.89151709029962E-3</v>
       </c>
       <c r="F93">
@@ -1858,8 +2031,12 @@
       <c r="I93">
         <v>104.712861369892</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="K93">
+        <f t="shared" si="0"/>
+        <v>104712861.369892</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1">
         <v>39326</v>
       </c>
@@ -1870,7 +2047,7 @@
         <v>10495.5</v>
       </c>
       <c r="E94">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9898135395879378E-3</v>
       </c>
       <c r="F94">
@@ -1879,8 +2056,12 @@
       <c r="I94">
         <v>105.02630590486</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="K94">
+        <f t="shared" si="0"/>
+        <v>105026305.90485999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1">
         <v>39356</v>
       </c>
@@ -1891,7 +2072,7 @@
         <v>10604</v>
       </c>
       <c r="E95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1234053650889515E-3</v>
       </c>
       <c r="F95">
@@ -1900,8 +2081,12 @@
       <c r="I95">
         <v>105.02630590486</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="K95">
+        <f t="shared" si="0"/>
+        <v>105026305.90485999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1">
         <v>39387</v>
       </c>
@@ -1912,7 +2097,7 @@
         <v>10712.5</v>
       </c>
       <c r="E96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3037849354333721E-3</v>
       </c>
       <c r="F96">
@@ -1921,8 +2106,12 @@
       <c r="I96">
         <v>105.02630590486</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <f t="shared" si="0"/>
+        <v>105026305.90485999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1">
         <v>39417</v>
       </c>
@@ -1936,7 +2125,7 @@
         <v>10821</v>
       </c>
       <c r="E97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2328754100073299E-3</v>
       </c>
       <c r="F97">
@@ -1945,8 +2134,12 @@
       <c r="I97">
         <v>105.653194974795</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <f t="shared" si="0"/>
+        <v>105653194.974795</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1">
         <v>39448</v>
       </c>
@@ -1957,7 +2150,7 @@
         <v>10931</v>
       </c>
       <c r="E98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3197174143472249E-3</v>
       </c>
       <c r="F98">
@@ -1969,8 +2162,12 @@
       <c r="J98">
         <v>109.74746839095801</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <f t="shared" si="0"/>
+        <v>105339750.439827</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1">
         <v>39479</v>
       </c>
@@ -1981,7 +2178,7 @@
         <v>11041</v>
       </c>
       <c r="E99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3793260223560375E-3</v>
       </c>
       <c r="F99">
@@ -1993,8 +2190,12 @@
       <c r="J99">
         <v>110.26553572713399</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <f t="shared" si="0"/>
+        <v>105653194.974795</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1">
         <v>39508</v>
       </c>
@@ -2005,7 +2206,7 @@
         <v>11151</v>
       </c>
       <c r="E100">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6483870760402657E-3</v>
       </c>
       <c r="F100">
@@ -2017,8 +2218,12 @@
       <c r="J100">
         <v>108.970367386695</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <f t="shared" si="0"/>
+        <v>105653194.974795</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1">
         <v>39539</v>
       </c>
@@ -2029,7 +2234,7 @@
         <v>11261</v>
       </c>
       <c r="E101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6929700412120151E-3</v>
       </c>
       <c r="F101">
@@ -2041,8 +2246,12 @@
       <c r="J101">
         <v>108.970367386695</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <f t="shared" si="0"/>
+        <v>105966639.509762</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1">
         <v>39569</v>
       </c>
@@ -2053,7 +2262,7 @@
         <v>11371</v>
       </c>
       <c r="E102">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6693881834347458E-3</v>
       </c>
       <c r="F102">
@@ -2065,8 +2274,12 @@
       <c r="J102">
         <v>107.15713171007999</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <f t="shared" si="0"/>
+        <v>105966639.509762</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1">
         <v>39600</v>
       </c>
@@ -2077,7 +2290,7 @@
         <v>11481</v>
       </c>
       <c r="E103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.743110200694757E-3</v>
       </c>
       <c r="F103">
@@ -2089,8 +2302,12 @@
       <c r="J103">
         <v>101.97645834832301</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <f t="shared" si="0"/>
+        <v>105966639.509762</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1">
         <v>39630</v>
       </c>
@@ -2101,7 +2318,7 @@
         <v>11591</v>
       </c>
       <c r="E104">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8461799313284432E-3</v>
       </c>
       <c r="F104">
@@ -2113,8 +2330,12 @@
       <c r="J104">
         <v>102.494525684499</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <f t="shared" si="0"/>
+        <v>106280084.04473001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="1">
         <v>39661</v>
       </c>
@@ -2125,7 +2346,7 @@
         <v>11701</v>
       </c>
       <c r="E105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4417845502810863E-3</v>
       </c>
       <c r="F105">
@@ -2137,8 +2358,12 @@
       <c r="J105">
         <v>103.53066035685001</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <f t="shared" si="0"/>
+        <v>106280084.04473001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="1">
         <v>39692</v>
       </c>
@@ -2149,7 +2374,7 @@
         <v>11811</v>
       </c>
       <c r="E106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0399276152029473E-3</v>
       </c>
       <c r="F106">
@@ -2161,8 +2386,12 @@
       <c r="J106">
         <v>98.090953327005707</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <f t="shared" si="0"/>
+        <v>105653194.974795</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="1">
         <v>39722</v>
       </c>
@@ -2173,7 +2402,7 @@
         <v>11921</v>
       </c>
       <c r="E107">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3838439293373417E-3</v>
       </c>
       <c r="F107">
@@ -2185,8 +2414,12 @@
       <c r="J107">
         <v>86.434438263052797</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <f t="shared" si="0"/>
+        <v>103459083.230023</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="1">
         <v>39753</v>
       </c>
@@ -2197,7 +2430,7 @@
         <v>12031</v>
       </c>
       <c r="E108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8292238287929437E-3</v>
       </c>
       <c r="F108">
@@ -2209,8 +2442,12 @@
       <c r="J108">
         <v>74.518889531012107</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <f t="shared" si="0"/>
+        <v>99697748.810413495</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="1">
         <v>39783</v>
       </c>
@@ -2224,7 +2461,7 @@
         <v>12141</v>
       </c>
       <c r="E109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7037940116687666E-3</v>
       </c>
       <c r="F109">
@@ -2236,8 +2473,12 @@
       <c r="J109">
         <v>70.115317173518804</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <f t="shared" si="0"/>
+        <v>97190192.530673802</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="1">
         <v>39814</v>
       </c>
@@ -2248,7 +2489,7 @@
         <v>12207.416666666666</v>
       </c>
       <c r="E110">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4365574041813749E-3</v>
       </c>
       <c r="F110">
@@ -2260,8 +2501,12 @@
       <c r="J110">
         <v>68.302081496903895</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <f t="shared" si="0"/>
+        <v>94682636.250934094</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="1">
         <v>39845</v>
       </c>
@@ -2272,7 +2517,7 @@
         <v>12273.833333333334</v>
       </c>
       <c r="E111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2176710500924035E-3</v>
       </c>
       <c r="F111">
@@ -2284,8 +2529,12 @@
       <c r="J111">
         <v>66.488845820289001</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <f t="shared" si="0"/>
+        <v>89040634.621519893</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="1">
         <v>39873</v>
       </c>
@@ -2296,7 +2545,7 @@
         <v>12340.25</v>
       </c>
       <c r="E112">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1942682451715274E-3</v>
       </c>
       <c r="F112">
@@ -2308,8 +2557,12 @@
       <c r="J112">
         <v>64.675610143674206</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <f t="shared" si="0"/>
+        <v>86533078.34178029</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="1">
         <v>39904</v>
       </c>
@@ -2320,7 +2573,7 @@
         <v>12406.666666666666</v>
       </c>
       <c r="E113">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1400561914398142E-3</v>
       </c>
       <c r="F113">
@@ -2332,8 +2585,12 @@
       <c r="J113">
         <v>63.121408135147099</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <f t="shared" si="0"/>
+        <v>83712077.5270731</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="1">
         <v>39934</v>
       </c>
@@ -2344,7 +2601,7 @@
         <v>12473.083333333334</v>
       </c>
       <c r="E114">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2782011705324733E-3</v>
       </c>
       <c r="F114">
@@ -2356,8 +2613,12 @@
       <c r="J114">
         <v>59.753970450005198</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <f t="shared" si="0"/>
+        <v>80264187.642431095</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="1">
         <v>39965</v>
       </c>
@@ -2368,7 +2629,7 @@
         <v>12539.5</v>
       </c>
       <c r="E115">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4301200931874241E-3</v>
       </c>
       <c r="F115">
@@ -2380,8 +2641,12 @@
       <c r="J115">
         <v>53.278128747809099</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <f t="shared" ref="K115:K178" si="2">1000000*I115</f>
+        <v>76502853.222821593</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="1">
         <v>39995</v>
       </c>
@@ -2392,7 +2657,7 @@
         <v>12605.916666666666</v>
       </c>
       <c r="E116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4283004453661126E-3</v>
       </c>
       <c r="F116">
@@ -2404,8 +2669,12 @@
       <c r="J116">
         <v>48.356489054140098</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <f t="shared" si="2"/>
+        <v>75249075.082951799</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="1">
         <v>40026</v>
       </c>
@@ -2416,7 +2685,7 @@
         <v>12672.333333333334</v>
       </c>
       <c r="E117">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.511472509997565E-3</v>
       </c>
       <c r="F117">
@@ -2428,8 +2697,12 @@
       <c r="J117">
         <v>47.061320713700901</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <f t="shared" si="2"/>
+        <v>72114629.733277202</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="1">
         <v>40057</v>
       </c>
@@ -2440,7 +2713,7 @@
         <v>12738.75</v>
       </c>
       <c r="E118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5728730709438532E-3</v>
       </c>
       <c r="F118">
@@ -2452,8 +2725,12 @@
       <c r="J118">
         <v>46.543253377525197</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <f t="shared" si="2"/>
+        <v>70233962.523472399</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="1">
         <v>40087</v>
       </c>
@@ -2464,7 +2741,7 @@
         <v>12805.166666666666</v>
       </c>
       <c r="E119">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6453126984677051E-3</v>
       </c>
       <c r="F119">
@@ -2476,8 +2753,12 @@
       <c r="J119">
         <v>43.952916696646803</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <f t="shared" si="2"/>
+        <v>67726406.243732795</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="1">
         <v>40118</v>
       </c>
@@ -2488,7 +2769,7 @@
         <v>12871.583333333334</v>
       </c>
       <c r="E120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6927682498140262E-3</v>
       </c>
       <c r="F120">
@@ -2500,8 +2781,12 @@
       <c r="J120">
         <v>42.657748356207598</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <f t="shared" si="2"/>
+        <v>67726406.243732795</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="1">
         <v>40148</v>
       </c>
@@ -2515,7 +2800,7 @@
         <v>12938</v>
       </c>
       <c r="E121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6304868906664205E-3</v>
       </c>
       <c r="F121">
@@ -2527,8 +2812,12 @@
       <c r="J121">
         <v>41.103546347680499</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <f t="shared" si="2"/>
+        <v>67412961.708765298</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="1">
         <v>40179</v>
       </c>
@@ -2539,7 +2828,7 @@
         <v>13034.166666666666</v>
       </c>
       <c r="E122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6160329449575332E-3</v>
       </c>
       <c r="F122">
@@ -2551,8 +2840,12 @@
       <c r="J122">
         <v>43.434849360471098</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <f t="shared" si="2"/>
+        <v>66786072.638830401</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="1">
         <v>40210</v>
       </c>
@@ -2563,7 +2856,7 @@
         <v>13130.333333333334</v>
       </c>
       <c r="E123">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4298267882140249E-3</v>
       </c>
       <c r="F123">
@@ -2575,8 +2868,12 @@
       <c r="J123">
         <v>46.543253377525197</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <f t="shared" si="2"/>
+        <v>66786072.638830401</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="1">
         <v>40238</v>
       </c>
@@ -2587,7 +2884,7 @@
         <v>13226.5</v>
       </c>
       <c r="E124">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4466880252908674E-3</v>
       </c>
       <c r="F124">
@@ -2599,8 +2896,12 @@
       <c r="J124">
         <v>50.687792066930697</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <f t="shared" si="2"/>
+        <v>67099517.173797905</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="1">
         <v>40269</v>
       </c>
@@ -2611,7 +2912,7 @@
         <v>13322.666666666666</v>
       </c>
       <c r="E125">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4357656453540345E-3</v>
       </c>
       <c r="F125">
@@ -2623,8 +2924,12 @@
       <c r="J125">
         <v>52.760061411633401</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <f t="shared" si="2"/>
+        <v>67412961.708765298</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="1">
         <v>40299</v>
       </c>
@@ -2635,7 +2940,7 @@
         <v>13418.833333333334</v>
       </c>
       <c r="E126">
-        <f t="shared" ref="E126:E189" si="1">B126/D126</f>
+        <f t="shared" ref="E126:E189" si="3">B126/D126</f>
         <v>7.2211473071971087E-3</v>
       </c>
       <c r="F126">
@@ -2647,8 +2952,12 @@
       <c r="J126">
         <v>55.8684654286875</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <f t="shared" si="2"/>
+        <v>66786072.638830401</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="1">
         <v>40330</v>
       </c>
@@ -2659,7 +2968,7 @@
         <v>13515</v>
       </c>
       <c r="E127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.1348114149456165E-3</v>
       </c>
       <c r="F127">
@@ -2671,8 +2980,12 @@
       <c r="J127">
         <v>57.681701105302402</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <f t="shared" si="2"/>
+        <v>67726406.243732795</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="1">
         <v>40360</v>
       </c>
@@ -2683,7 +2996,7 @@
         <v>13611.166666666666</v>
       </c>
       <c r="E128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.2491453429729168E-3</v>
       </c>
       <c r="F128">
@@ -2695,8 +3008,12 @@
       <c r="J128">
         <v>59.753970450005099</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <f t="shared" si="2"/>
+        <v>71174296.1283748</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="1">
         <v>40391</v>
       </c>
@@ -2707,7 +3024,7 @@
         <v>13707.333333333334</v>
       </c>
       <c r="E129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.2744414049674055E-3</v>
       </c>
       <c r="F129">
@@ -2719,8 +3036,12 @@
       <c r="J129">
         <v>65.970778484113296</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <f t="shared" si="2"/>
+        <v>74935630.547984302</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="1">
         <v>40422</v>
       </c>
@@ -2731,7 +3052,7 @@
         <v>13803.5</v>
       </c>
       <c r="E130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.2961154517752732E-3</v>
       </c>
       <c r="F130">
@@ -2743,8 +3064,12 @@
       <c r="J130">
         <v>67.784014160728205</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <f t="shared" si="2"/>
+        <v>76189408.687854096</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="1">
         <v>40452</v>
       </c>
@@ -2755,7 +3080,7 @@
         <v>13899.666666666666</v>
       </c>
       <c r="E131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.4928985520909498E-3</v>
       </c>
       <c r="F131">
@@ -2767,8 +3092,12 @@
       <c r="J131">
         <v>68.8201488330796</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <f t="shared" si="2"/>
+        <v>77129742.292756498</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="1">
         <v>40483</v>
       </c>
@@ -2779,7 +3108,7 @@
         <v>13995.833333333334</v>
       </c>
       <c r="E132">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.4614404656274964E-3</v>
       </c>
       <c r="F132">
@@ -2791,8 +3120,12 @@
       <c r="J132">
         <v>70.115317173518804</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <f t="shared" si="2"/>
+        <v>78070075.897658899</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="1">
         <v>40513</v>
       </c>
@@ -2806,7 +3139,7 @@
         <v>14092</v>
       </c>
       <c r="E133">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.4239811605591828E-3</v>
       </c>
       <c r="F133">
@@ -2818,8 +3151,12 @@
       <c r="J133">
         <v>71.410485513957994</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <f t="shared" si="2"/>
+        <v>77443186.82772401</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="1">
         <v>40544</v>
       </c>
@@ -2830,7 +3167,7 @@
         <v>14194.25</v>
       </c>
       <c r="E134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5930144855099781E-3</v>
       </c>
       <c r="F134">
@@ -2848,8 +3185,12 @@
       <c r="J134">
         <v>71.928552850133698</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <f t="shared" si="2"/>
+        <v>75249075.082951799</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="1">
         <v>40575</v>
       </c>
@@ -2860,7 +3201,7 @@
         <v>14296.5</v>
       </c>
       <c r="E135">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.6918273901582903E-3</v>
       </c>
       <c r="F135">
@@ -2878,8 +3219,12 @@
       <c r="J135">
         <v>72.964687522485093</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <f t="shared" si="2"/>
+        <v>72428074.268244699</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="1">
         <v>40603</v>
       </c>
@@ -2890,7 +3235,7 @@
         <v>14398.75</v>
       </c>
       <c r="E136">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.8265236059516623E-3</v>
       </c>
       <c r="F136">
@@ -2908,8 +3253,12 @@
       <c r="J136">
         <v>74.259855862924297</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <f t="shared" si="2"/>
+        <v>70860851.593407407</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="1">
         <v>40634</v>
       </c>
@@ -2920,7 +3269,7 @@
         <v>14501</v>
       </c>
       <c r="E137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9787382891049578E-3</v>
       </c>
       <c r="F137">
@@ -2938,8 +3287,12 @@
       <c r="J137">
         <v>74.777923199100002</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <f t="shared" si="2"/>
+        <v>70547407.058439896</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="1">
         <v>40664</v>
       </c>
@@ -2950,7 +3303,7 @@
         <v>14603.25</v>
       </c>
       <c r="E138">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.908160595794942E-3</v>
       </c>
       <c r="F138">
@@ -2968,8 +3321,12 @@
       <c r="J138">
         <v>74.777923199100002</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <f t="shared" si="2"/>
+        <v>70233962.523472399</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="1">
         <v>40695</v>
       </c>
@@ -2980,7 +3337,7 @@
         <v>14705.5</v>
       </c>
       <c r="E139">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.8764906887171127E-3</v>
       </c>
       <c r="F139">
@@ -2998,8 +3355,12 @@
       <c r="J139">
         <v>74.518889531012107</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <f t="shared" si="2"/>
+        <v>70547407.058439896</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="1">
         <v>40725</v>
       </c>
@@ -3010,7 +3371,7 @@
         <v>14807.75</v>
       </c>
       <c r="E140">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.8588470329770902E-3</v>
       </c>
       <c r="F140">
@@ -3028,8 +3389,12 @@
       <c r="J140">
         <v>73.223721190572903</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <f t="shared" si="2"/>
+        <v>69607073.453537494</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="1">
         <v>40756</v>
       </c>
@@ -3040,7 +3405,7 @@
         <v>14910</v>
       </c>
       <c r="E141">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.8417168977238435E-3</v>
       </c>
       <c r="F141">
@@ -3058,8 +3423,12 @@
       <c r="J141">
         <v>70.892418177782403</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <f t="shared" si="2"/>
+        <v>69920517.988504991</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="1">
         <v>40787</v>
       </c>
@@ -3070,7 +3439,7 @@
         <v>15012.25</v>
       </c>
       <c r="E142">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.6188840874884178E-3</v>
       </c>
       <c r="F142">
@@ -3088,8 +3457,12 @@
       <c r="J142">
         <v>67.265946824552501</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <f t="shared" si="2"/>
+        <v>69607073.453537598</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="1">
         <v>40817</v>
       </c>
@@ -3100,7 +3473,7 @@
         <v>15114.5</v>
       </c>
       <c r="E143">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5724115167544745E-3</v>
       </c>
       <c r="F143">
@@ -3118,8 +3491,12 @@
       <c r="J143">
         <v>58.458802109565902</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <f t="shared" si="2"/>
+        <v>68666739.848635107</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="1">
         <v>40848</v>
       </c>
@@ -3130,7 +3507,7 @@
         <v>15216.75</v>
       </c>
       <c r="E144">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.4910033329346282E-3</v>
       </c>
       <c r="F144">
@@ -3148,8 +3525,12 @@
       <c r="J144">
         <v>53.537162415896901</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <f t="shared" si="2"/>
+        <v>68039850.778700203</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="1">
         <v>40878</v>
       </c>
@@ -3163,7 +3544,7 @@
         <v>15319</v>
       </c>
       <c r="E145">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.3642016660257856E-3</v>
       </c>
       <c r="F145">
@@ -3181,8 +3562,12 @@
       <c r="J145">
         <v>49.651657394579303</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <f t="shared" si="2"/>
+        <v>67412961.708765298</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="1">
         <v>40909</v>
       </c>
@@ -3193,7 +3578,7 @@
         <v>15392.083333333334</v>
       </c>
       <c r="E146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.3520317685656809E-3</v>
       </c>
       <c r="F146">
@@ -3211,8 +3596,12 @@
       <c r="J146">
         <v>49.651657394579303</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <f t="shared" si="2"/>
+        <v>67099517.173797809</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="1">
         <v>40940</v>
       </c>
@@ -3223,7 +3612,7 @@
         <v>15465.166666666666</v>
       </c>
       <c r="E147">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.4370116398247031E-3</v>
       </c>
       <c r="F147">
@@ -3241,8 +3630,12 @@
       <c r="J147">
         <v>49.651657394579303</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <f t="shared" si="2"/>
+        <v>66472628.103862904</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="1">
         <v>40969</v>
       </c>
@@ -3253,7 +3646,7 @@
         <v>15538.25</v>
       </c>
       <c r="E148">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.3862809020150601E-3</v>
       </c>
       <c r="F148">
@@ -3271,8 +3664,12 @@
       <c r="J148">
         <v>49.910691062667198</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <f t="shared" si="2"/>
+        <v>65218849.963993095</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="1">
         <v>41000</v>
       </c>
@@ -3283,7 +3680,7 @@
         <v>15611.333333333334</v>
       </c>
       <c r="E149">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.3365940188571122E-3</v>
       </c>
       <c r="F149">
@@ -3301,8 +3698,12 @@
       <c r="J149">
         <v>50.169724730755</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <f t="shared" si="2"/>
+        <v>63965071.824123301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="1">
         <v>41030</v>
       </c>
@@ -3313,7 +3714,7 @@
         <v>15684.416666666666</v>
       </c>
       <c r="E150">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.1706798473676519E-3</v>
       </c>
       <c r="F150">
@@ -3331,8 +3732,12 @@
       <c r="J150">
         <v>50.9468257350185</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <f t="shared" si="2"/>
+        <v>62711293.684253402</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="1">
         <v>41061</v>
       </c>
@@ -3343,7 +3748,7 @@
         <v>15757.5</v>
       </c>
       <c r="E151">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.0117125996866257E-3</v>
       </c>
       <c r="F151">
@@ -3361,8 +3766,12 @@
       <c r="J151">
         <v>50.9468257350185</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <f t="shared" si="2"/>
+        <v>61457515.5443836</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="1">
         <v>41091</v>
       </c>
@@ -3373,7 +3782,7 @@
         <v>15830.583333333334</v>
       </c>
       <c r="E152">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.9316151463152753E-3</v>
       </c>
       <c r="F152">
@@ -3391,8 +3800,12 @@
       <c r="J152">
         <v>50.9468257350185</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <f t="shared" si="2"/>
+        <v>60203737.404513799</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="1">
         <v>41122</v>
       </c>
@@ -3403,7 +3816,7 @@
         <v>15903.666666666666</v>
       </c>
       <c r="E153">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.977325379228648E-3</v>
       </c>
       <c r="F153">
@@ -3421,8 +3834,12 @@
       <c r="J153">
         <v>50.687792066930697</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <f t="shared" si="2"/>
+        <v>59576848.334578902</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="1">
         <v>41153</v>
       </c>
@@ -3433,7 +3850,7 @@
         <v>15976.75</v>
       </c>
       <c r="E154">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.0760269946738225E-3</v>
       </c>
       <c r="F154">
@@ -3451,8 +3868,12 @@
       <c r="J154">
         <v>49.392623726491401</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <f t="shared" si="2"/>
+        <v>59263403.799611405</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="1">
         <v>41183</v>
       </c>
@@ -3463,7 +3884,7 @@
         <v>16049.833333333334</v>
       </c>
       <c r="E155">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.0314645144978136E-3</v>
       </c>
       <c r="F155">
@@ -3481,8 +3902,12 @@
       <c r="J155">
         <v>48.356489054140098</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <f t="shared" si="2"/>
+        <v>58949959.264644004</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="1">
         <v>41214</v>
       </c>
@@ -3493,7 +3918,7 @@
         <v>16122.916666666666</v>
       </c>
       <c r="E156">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.936367020158595E-3</v>
       </c>
       <c r="F156">
@@ -3511,8 +3936,12 @@
       <c r="J156">
         <v>47.061320713700901</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <f t="shared" si="2"/>
+        <v>58009625.659741603</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="1">
         <v>41244</v>
       </c>
@@ -3526,7 +3955,7 @@
         <v>16196</v>
       </c>
       <c r="E157">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.9928032744378862E-3</v>
       </c>
       <c r="F157">
@@ -3544,8 +3973,12 @@
       <c r="J157">
         <v>46.543253377525197</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <f t="shared" si="2"/>
+        <v>57382736.589806698</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="1">
         <v>41275</v>
       </c>
@@ -3556,7 +3989,7 @@
         <v>16274.25</v>
       </c>
       <c r="E158">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.9750081950806951E-3</v>
       </c>
       <c r="F158">
@@ -3574,8 +4007,12 @@
       <c r="J158">
         <v>47.838421717964401</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <f t="shared" si="2"/>
+        <v>57069292.054839201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="1">
         <v>41306</v>
       </c>
@@ -3586,7 +4023,7 @@
         <v>16352.5</v>
       </c>
       <c r="E159">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.9713501512195389E-3</v>
       </c>
       <c r="F159">
@@ -3604,8 +4041,12 @@
       <c r="J159">
         <v>49.910691062667198</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <f t="shared" si="2"/>
+        <v>57382736.589806601</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="1">
         <v>41334</v>
       </c>
@@ -3616,7 +4057,7 @@
         <v>16430.75</v>
       </c>
       <c r="E160">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.853116418442615E-3</v>
       </c>
       <c r="F160">
@@ -3634,8 +4075,12 @@
       <c r="J160">
         <v>50.9468257350185</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <f t="shared" si="2"/>
+        <v>57382736.589806698</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="1">
         <v>41365</v>
       </c>
@@ -3646,7 +4091,7 @@
         <v>16509</v>
       </c>
       <c r="E161">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.7851988566164515E-3</v>
       </c>
       <c r="F161">
@@ -3664,8 +4109,12 @@
       <c r="J161">
         <v>48.615522722227901</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <f t="shared" si="2"/>
+        <v>58323070.194708996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="1">
         <v>41395</v>
       </c>
@@ -3676,7 +4125,7 @@
         <v>16587.25</v>
       </c>
       <c r="E162">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.676943364553347E-3</v>
       </c>
       <c r="F162">
@@ -3694,8 +4143,12 @@
       <c r="J162">
         <v>48.615522722228</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <f t="shared" si="2"/>
+        <v>58949959.264644004</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="1">
         <v>41426</v>
       </c>
@@ -3706,7 +4159,7 @@
         <v>16665.5</v>
       </c>
       <c r="E163">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.703183310315863E-3</v>
       </c>
       <c r="F163">
@@ -3724,8 +4177,12 @@
       <c r="J163">
         <v>49.651657394579303</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <f t="shared" si="2"/>
+        <v>59263403.799611405</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="1">
         <v>41456</v>
       </c>
@@ -3736,7 +4193,7 @@
         <v>16743.75</v>
       </c>
       <c r="E164">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.6161343709795293E-3</v>
       </c>
       <c r="F164">
@@ -3754,8 +4211,12 @@
       <c r="J164">
         <v>50.9468257350185</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <f t="shared" si="2"/>
+        <v>61457515.5443836</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="1">
         <v>41487</v>
       </c>
@@ -3766,7 +4227,7 @@
         <v>16822</v>
       </c>
       <c r="E165">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.6308533135467848E-3</v>
       </c>
       <c r="F165">
@@ -3784,8 +4245,12 @@
       <c r="J165">
         <v>51.205859403106402</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <f t="shared" si="2"/>
+        <v>62397849.149286002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="1">
         <v>41518</v>
       </c>
@@ -3796,7 +4261,7 @@
         <v>16900.25</v>
       </c>
       <c r="E166">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.6220454437312766E-3</v>
       </c>
       <c r="F166">
@@ -3814,8 +4279,12 @@
       <c r="J166">
         <v>51.464893071194197</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <f t="shared" si="2"/>
+        <v>63651627.289155796</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="1">
         <v>41548</v>
       </c>
@@ -3826,7 +4295,7 @@
         <v>16978.5</v>
       </c>
       <c r="E167">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.6206356169350644E-3</v>
       </c>
       <c r="F167">
@@ -3844,8 +4313,12 @@
       <c r="J167">
         <v>51.464893071194197</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <f t="shared" si="2"/>
+        <v>64278516.359090798</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="1">
         <v>41579</v>
       </c>
@@ -3856,7 +4329,7 @@
         <v>17056.75</v>
       </c>
       <c r="E168">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.5550942406225107E-3</v>
       </c>
       <c r="F168">
@@ -3874,8 +4347,12 @@
       <c r="J168">
         <v>51.464893071194197</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <f t="shared" si="2"/>
+        <v>64278516.359090798</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="1">
         <v>41609</v>
       </c>
@@ -3889,7 +4366,7 @@
         <v>17135</v>
       </c>
       <c r="E169">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.5872432010948643E-3</v>
       </c>
       <c r="F169">
@@ -3907,8 +4384,12 @@
       <c r="J169">
         <v>51.464893071194197</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <f t="shared" si="2"/>
+        <v>64905405.429025702</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="1">
         <v>41640</v>
       </c>
@@ -3919,7 +4400,7 @@
         <v>17218.833333333332</v>
       </c>
       <c r="E170">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.5283639389515351E-3</v>
       </c>
       <c r="F170">
@@ -3937,8 +4418,12 @@
       <c r="J170">
         <v>51.464893071194197</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <f t="shared" si="2"/>
+        <v>66159183.568895496</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="1">
         <v>41671</v>
       </c>
@@ -3949,7 +4434,7 @@
         <v>17302.666666666668</v>
       </c>
       <c r="E171">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.4998957357506161E-3</v>
       </c>
       <c r="F171">
@@ -3967,8 +4452,12 @@
       <c r="J171">
         <v>51.464893071194197</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <f t="shared" si="2"/>
+        <v>66786072.638830401</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="1">
         <v>41699</v>
       </c>
@@ -3979,7 +4468,7 @@
         <v>17386.5</v>
       </c>
       <c r="E172">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.5176064608264165E-3</v>
       </c>
       <c r="F172">
@@ -3997,8 +4486,12 @@
       <c r="J172">
         <v>51.464893071194197</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <f t="shared" si="2"/>
+        <v>66786072.638830401</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="1">
         <v>41730</v>
       </c>
@@ -4009,7 +4502,7 @@
         <v>17470.333333333332</v>
       </c>
       <c r="E173">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.4599478648108225E-3</v>
       </c>
       <c r="F173">
@@ -4027,8 +4520,12 @@
       <c r="J173">
         <v>51.464893071194197</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <f t="shared" si="2"/>
+        <v>66786072.638830401</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="1">
         <v>41760</v>
       </c>
@@ -4039,7 +4536,7 @@
         <v>17554.166666666668</v>
       </c>
       <c r="E174">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.4216722644977638E-3</v>
       </c>
       <c r="F174">
@@ -4057,8 +4554,12 @@
       <c r="J174">
         <v>51.464893071194197</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <f t="shared" si="2"/>
+        <v>66786072.638830401</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="1">
         <v>41791</v>
       </c>
@@ -4069,7 +4570,7 @@
         <v>17638</v>
       </c>
       <c r="E175">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.3553433651673376E-3</v>
       </c>
       <c r="F175">
@@ -4087,8 +4588,12 @@
       <c r="J175">
         <v>50.9468257350185</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <f t="shared" si="2"/>
+        <v>66472628.103863001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="1">
         <v>41821</v>
       </c>
@@ -4099,7 +4604,7 @@
         <v>17721.833333333332</v>
       </c>
       <c r="E176">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.3294028177444776E-3</v>
       </c>
       <c r="F176">
@@ -4116,6 +4621,10 @@
       </c>
       <c r="J176">
         <v>48.874556390315803</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="2"/>
+        <v>66159183.568895496</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -4129,7 +4638,7 @@
         <v>17805.666666666668</v>
       </c>
       <c r="E177">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.2355393410189639E-3</v>
       </c>
       <c r="F177">
@@ -4146,6 +4655,10 @@
       </c>
       <c r="J177">
         <v>46.0251860413495</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="2"/>
+        <v>65845739.033928096</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -4159,7 +4672,7 @@
         <v>17889.5</v>
       </c>
       <c r="E178">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.0809330413268397E-3</v>
       </c>
       <c r="F178">
@@ -4176,6 +4689,10 @@
       </c>
       <c r="J178">
         <v>43.693883028558901</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="2"/>
+        <v>65845739.033928096</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -4189,7 +4706,7 @@
         <v>17973.333333333332</v>
       </c>
       <c r="E179">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.955069722615264E-3</v>
       </c>
       <c r="F179">
@@ -4206,6 +4723,10 @@
       </c>
       <c r="J179">
         <v>42.916782024295401</v>
+      </c>
+      <c r="K179">
+        <f t="shared" ref="K179:K199" si="4">1000000*I179</f>
+        <v>65845739.033927999</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -4219,7 +4740,7 @@
         <v>18057.166666666668</v>
       </c>
       <c r="E180">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.8105376967917998E-3</v>
       </c>
       <c r="F180">
@@ -4236,6 +4757,10 @@
       </c>
       <c r="J180">
         <v>42.398714688119703</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="4"/>
+        <v>66159183.568895496</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -4252,7 +4777,7 @@
         <v>18141</v>
       </c>
       <c r="E181">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.6246227401443964E-3</v>
       </c>
       <c r="F181">
@@ -4271,7 +4796,8 @@
         <v>42.139681020031901</v>
       </c>
       <c r="K181">
-        <v>3.5550000000000002</v>
+        <f t="shared" si="4"/>
+        <v>66472628.103862904</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -4285,7 +4811,7 @@
         <v>18270.166666666668</v>
       </c>
       <c r="E182">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.4091925320026314E-3</v>
       </c>
       <c r="F182" s="10">
@@ -4302,6 +4828,10 @@
       </c>
       <c r="J182">
         <v>42.657748356207598</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="4"/>
+        <v>66786072.638830401</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -4315,7 +4845,7 @@
         <v>18399.333333333332</v>
       </c>
       <c r="E183">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.3089727899820836E-3</v>
       </c>
       <c r="F183" s="10">
@@ -4332,6 +4862,10 @@
       </c>
       <c r="J183">
         <v>42.916782024295401</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="4"/>
+        <v>66786072.638830401</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -4345,7 +4879,7 @@
         <v>18528.5</v>
       </c>
       <c r="E184">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.1727244331892805E-3</v>
       </c>
       <c r="F184" s="10">
@@ -4362,6 +4896,10 @@
       </c>
       <c r="J184">
         <v>42.916782024295401</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="4"/>
+        <v>66786072.638830401</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -4375,7 +4913,7 @@
         <v>18657.666666666668</v>
       </c>
       <c r="E185">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.1226096875252253E-3</v>
       </c>
       <c r="F185" s="10">
@@ -4392,6 +4930,10 @@
       </c>
       <c r="J185">
         <v>43.693883028558901</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="4"/>
+        <v>66786072.638830401</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -4405,7 +4947,7 @@
         <v>18786.833333333332</v>
       </c>
       <c r="E186">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.1830496069699451E-3</v>
       </c>
       <c r="F186" s="10">
@@ -4422,6 +4964,10 @@
       </c>
       <c r="J186">
         <v>43.434849360471098</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="4"/>
+        <v>66786072.638830401</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -4435,7 +4981,7 @@
         <v>18916</v>
       </c>
       <c r="E187">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.1297893302472567E-3</v>
       </c>
       <c r="F187" s="10">
@@ -4452,6 +4998,10 @@
       </c>
       <c r="J187">
         <v>42.139681020031901</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="4"/>
+        <v>66472628.103862904</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -4465,7 +5015,7 @@
         <v>19045.166666666668</v>
       </c>
       <c r="E188">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.0048970220203954E-3</v>
       </c>
       <c r="F188" s="10">
@@ -4482,6 +5032,10 @@
       </c>
       <c r="J188">
         <v>40.067411675329197</v>
+      </c>
+      <c r="K188">
+        <f t="shared" si="4"/>
+        <v>66159183.568895496</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -4495,7 +5049,7 @@
         <v>19174.333333333332</v>
       </c>
       <c r="E189">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.899141078301395E-3</v>
       </c>
       <c r="F189" s="10">
@@ -4512,6 +5066,10 @@
       </c>
       <c r="J189">
         <v>39.031277002977703</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="4"/>
+        <v>65845739.033927999</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -4525,7 +5083,7 @@
         <v>19303.5</v>
       </c>
       <c r="E190">
-        <f t="shared" ref="E190:E205" si="2">B190/D190</f>
+        <f t="shared" ref="E190:E205" si="5">B190/D190</f>
         <v>4.8242048357666715E-3</v>
       </c>
       <c r="F190" s="10">
@@ -4542,6 +5100,10 @@
       </c>
       <c r="J190">
         <v>37.9951423306264</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="4"/>
+        <v>65845739.033928096</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -4555,7 +5117,7 @@
         <v>19432.666666666668</v>
       </c>
       <c r="E191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.7842012355180574E-3</v>
       </c>
       <c r="F191" s="10">
@@ -4572,6 +5134,10 @@
       </c>
       <c r="J191">
         <v>36.440940322099301</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="4"/>
+        <v>65845739.033927999</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -4585,7 +5151,7 @@
         <v>19561.833333333332</v>
       </c>
       <c r="E192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.6363786164047112E-3</v>
       </c>
       <c r="F192" s="10">
@@ -4603,8 +5169,12 @@
       <c r="J192">
         <v>33.332536305045302</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <f t="shared" si="4"/>
+        <v>65845739.033927999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="1">
         <v>42339</v>
       </c>
@@ -4618,7 +5188,7 @@
         <v>19691</v>
       </c>
       <c r="E193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.5654977252789376E-3</v>
       </c>
       <c r="F193" s="10">
@@ -4636,8 +5206,12 @@
       <c r="J193">
         <v>30.742199624166801</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <f t="shared" si="4"/>
+        <v>65845739.033927999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="1">
         <v>42370</v>
       </c>
@@ -4648,7 +5222,7 @@
         <v>19711.333333333332</v>
       </c>
       <c r="E194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.4679710024772513E-3</v>
       </c>
       <c r="F194" s="10">
@@ -4666,8 +5240,12 @@
       <c r="J194">
         <v>29.187997615639802</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <f t="shared" si="4"/>
+        <v>65532294.498960599</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="1">
         <v>42401</v>
       </c>
@@ -4679,7 +5257,7 @@
         <v>19731.666666666668</v>
       </c>
       <c r="E195">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.4914744229248866E-3</v>
       </c>
       <c r="F195" s="10">
@@ -4697,8 +5275,12 @@
       <c r="J195">
         <v>28.669930279464101</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <f t="shared" si="4"/>
+        <v>64591960.894058205</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="1">
         <v>42430</v>
       </c>
@@ -4710,7 +5292,7 @@
         <v>19752</v>
       </c>
       <c r="E196">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.5173318169090954E-3</v>
       </c>
       <c r="F196" s="10">
@@ -4728,8 +5310,12 @@
       <c r="J196">
         <v>28.1518629432884</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <f t="shared" si="4"/>
+        <v>64278516.359090798</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="1">
         <v>42461</v>
       </c>
@@ -4741,7 +5327,7 @@
         <v>19772.333333333332</v>
       </c>
       <c r="E197">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.5847752999378004E-3</v>
       </c>
       <c r="F197" s="10">
@@ -4759,8 +5345,12 @@
       <c r="J197">
         <v>27.892829275200501</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <f t="shared" si="4"/>
+        <v>63024738.219220899</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="1">
         <v>42491</v>
       </c>
@@ -4772,7 +5362,7 @@
         <v>19792.666666666668</v>
       </c>
       <c r="E198">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.5845852981924746E-3</v>
       </c>
       <c r="F198" s="10">
@@ -4787,8 +5377,12 @@
       <c r="I198">
         <v>62.711293684253398</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <f t="shared" si="4"/>
+        <v>62711293.684253402</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="1">
         <v>42522</v>
       </c>
@@ -4800,7 +5394,7 @@
         <v>19813</v>
       </c>
       <c r="E199">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.6102314936741079E-3</v>
       </c>
       <c r="F199" s="10">
@@ -4815,8 +5409,12 @@
       <c r="I199">
         <v>62.084404614318501</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <f t="shared" si="4"/>
+        <v>62084404.614318497</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="1">
         <v>42552</v>
       </c>
@@ -4828,7 +5426,7 @@
         <v>19833.333333333332</v>
       </c>
       <c r="E200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.5858380950147921E-3</v>
       </c>
       <c r="F200" s="10">
@@ -4841,7 +5439,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:11">
       <c r="A201" s="1">
         <v>42583</v>
       </c>
@@ -4853,7 +5451,7 @@
         <v>19853.666666666668</v>
       </c>
       <c r="E201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.6194722567574238E-3</v>
       </c>
       <c r="F201" s="10">
@@ -4866,7 +5464,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:11">
       <c r="A202" s="1">
         <v>42614</v>
       </c>
@@ -4878,7 +5476,7 @@
         <v>19874</v>
       </c>
       <c r="E202">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.6175873768676155E-3</v>
       </c>
       <c r="F202" s="10">
@@ -4891,7 +5489,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:11">
       <c r="A203" s="1">
         <v>42644</v>
       </c>
@@ -4903,7 +5501,7 @@
         <v>19894.333333333332</v>
       </c>
       <c r="E203">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.6233540679451977E-3</v>
       </c>
       <c r="F203" s="10">
@@ -4916,7 +5514,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:11">
       <c r="A204" s="1">
         <v>42675</v>
       </c>
@@ -4928,7 +5526,7 @@
         <v>19914.666666666668</v>
       </c>
       <c r="E204">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.5816260554969552E-3</v>
       </c>
       <c r="F204" s="10">
@@ -4941,7 +5539,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:11">
       <c r="A205" s="1">
         <v>42705</v>
       </c>
@@ -4955,7 +5553,7 @@
         <v>19935</v>
       </c>
       <c r="E205">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.5965811303030103E-3</v>
       </c>
       <c r="F205" s="10">
@@ -4968,7 +5566,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:11">
       <c r="A206" t="s">
         <v>36</v>
       </c>
@@ -4994,11 +5592,11 @@
         <v>57.161043432445858</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:11">
       <c r="B207" s="2"/>
       <c r="F207" s="10"/>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:11">
       <c r="B208" s="2"/>
       <c r="F208" s="10"/>
     </row>
@@ -5924,6 +6522,233 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E17147-9981-8A4C-9D06-BC7C6FB55E00}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" thickBot="1"/>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.79817814978501889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.63708835879423598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.63443936871244211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10092928.995099191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="21" thickBot="1">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="21" thickBot="1">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.4499305494331932E+16</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.4499305494331932E+16</v>
+      </c>
+      <c r="E12" s="5">
+        <v>240.50235717107682</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5.9605568569202832E-32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5">
+        <v>137</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.3955808550915612E+16</v>
+      </c>
+      <c r="D13" s="5">
+        <v>101867215700113.95</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="21" thickBot="1">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6">
+        <v>138</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3.8455114045247544E+16</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="21" thickBot="1"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5">
+        <v>17854157.170421883</v>
+      </c>
+      <c r="C17" s="5">
+        <v>4025824.2588552344</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4.4349072444356556</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1.8748051823539615E-5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>9893366.6256941184</v>
+      </c>
+      <c r="G17" s="5">
+        <v>25814947.715149648</v>
+      </c>
+      <c r="H17" s="5">
+        <v>9893366.6256941184</v>
+      </c>
+      <c r="I17" s="5">
+        <v>25814947.715149648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="21" thickBot="1">
+      <c r="A18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6">
+        <v>7944484914.483717</v>
+      </c>
+      <c r="C18" s="6">
+        <v>512278437.34008533</v>
+      </c>
+      <c r="D18" s="6">
+        <v>15.508138417330313</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5.960556856920708E-32</v>
+      </c>
+      <c r="F18" s="6">
+        <v>6931489543.0949745</v>
+      </c>
+      <c r="G18" s="6">
+        <v>8957480285.8724594</v>
+      </c>
+      <c r="H18" s="6">
+        <v>6931489543.0949745</v>
+      </c>
+      <c r="I18" s="6">
+        <v>8957480285.8724594</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778AA02C-85B6-8441-AC36-F432356D488B}">
   <dimension ref="A1:I18"/>
   <sheetViews>

--- a/data/correlation/regression.xlsx
+++ b/data/correlation/regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinoriokubo/Documents/simulator/data/correlation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAD84F7-AEF2-054F-A77C-3599754BBABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2178C92-9E3A-5342-B9FC-5011DB7CE2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27900" windowHeight="15400" xr2:uid="{CA90CC09-E6FD-5A43-8559-1E712E5E9A16}"/>
+    <workbookView xWindow="17840" yWindow="900" windowWidth="27900" windowHeight="15400" activeTab="3" xr2:uid="{CA90CC09-E6FD-5A43-8559-1E712E5E9A16}"/>
   </bookViews>
   <sheets>
     <sheet name="元データ" sheetId="1" r:id="rId1"/>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201083BE-F943-2C42-9F81-81E38B44A9E5}">
   <dimension ref="A1:K258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6298,8 +6298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD7738C-2A79-9E44-8489-03F493A35CD5}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/data/correlation/regression.xlsx
+++ b/data/correlation/regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinoriokubo/Documents/simulator/data/correlation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5728236C-8E41-5143-BB6F-C1578210DDA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69C9984-1DDD-024B-A4D3-327EB709FBF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="600" windowWidth="28800" windowHeight="15860" xr2:uid="{CA90CC09-E6FD-5A43-8559-1E712E5E9A16}"/>
+    <workbookView xWindow="1260" yWindow="480" windowWidth="25740" windowHeight="15860" xr2:uid="{CA90CC09-E6FD-5A43-8559-1E712E5E9A16}"/>
   </bookViews>
   <sheets>
     <sheet name="元データ" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,8 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">元データ!$J$98:$J$197</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">元データ!$K$98:$K$197</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">元データ!$J$98:$J$197</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">元データ!$K$98:$K$197</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">元データ!$M$61:$M$73</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">元データ!$M$61:$M$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -431,316 +429,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>元データ!$J$98:$J$197</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>109.74746839095801</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>110.26553572713399</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>108.970367386695</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>108.970367386695</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>107.15713171007999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>101.97645834832301</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>102.494525684499</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>103.53066035685001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>98.090953327005707</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>86.434438263052797</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>74.518889531012107</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>70.115317173518804</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>68.302081496903895</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>66.488845820289001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64.675610143674206</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>63.121408135147099</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>59.753970450005198</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>53.278128747809099</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48.356489054140098</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>47.061320713700901</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>46.543253377525197</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43.952916696646803</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42.657748356207598</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41.103546347680499</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43.434849360471098</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>46.543253377525197</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>50.687792066930697</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>52.760061411633401</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>55.8684654286875</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>57.681701105302402</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>59.753970450005099</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>65.970778484113296</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>67.784014160728205</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>68.8201488330796</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>70.115317173518804</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>71.410485513957994</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>71.928552850133698</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>72.964687522485093</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>74.259855862924297</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>74.777923199100002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>74.777923199100002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>74.518889531012107</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>73.223721190572903</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>70.892418177782403</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>67.265946824552501</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>58.458802109565902</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>53.537162415896901</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>49.651657394579303</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49.651657394579303</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49.651657394579303</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>49.910691062667198</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>50.169724730755</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>50.9468257350185</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>50.9468257350185</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>50.9468257350185</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>50.687792066930697</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>49.392623726491401</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>48.356489054140098</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>47.061320713700901</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>46.543253377525197</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>47.838421717964401</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>49.910691062667198</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>50.9468257350185</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>48.615522722227901</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>48.615522722228</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>49.651657394579303</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>50.9468257350185</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>51.205859403106402</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>50.9468257350185</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>48.874556390315803</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>46.0251860413495</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>43.693883028558901</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>42.916782024295401</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>42.398714688119703</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>42.139681020031901</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>42.657748356207598</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>42.916782024295401</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>42.916782024295401</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>43.693883028558901</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>43.434849360471098</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>42.139681020031901</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>40.067411675329197</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>39.031277002977703</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>37.9951423306264</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>36.440940322099301</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>33.332536305045302</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>30.742199624166801</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>29.187997615639802</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>28.669930279464101</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>28.1518629432884</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>27.892829275200501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
             <c:numRef>
               <c:f>元データ!$K$98:$K$197</c:f>
               <c:numCache>
@@ -1048,11 +751,320 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>元データ!$L$98:$L$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>109.74746839095801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.26553572713399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108.970367386695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108.970367386695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107.15713171007999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.97645834832301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.494525684499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103.53066035685001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.090953327005707</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86.434438263052797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74.518889531012107</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.115317173518804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.302081496903895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.488845820289001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.675610143674206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.121408135147099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.753970450005198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.278128747809099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.356489054140098</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.061320713700901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.543253377525197</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43.952916696646803</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42.657748356207598</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41.103546347680499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43.434849360471098</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46.543253377525197</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50.687792066930697</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52.760061411633401</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>55.8684654286875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57.681701105302402</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59.753970450005099</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65.970778484113296</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>67.784014160728205</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68.8201488330796</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70.115317173518804</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71.410485513957994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71.928552850133698</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>72.964687522485093</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>74.259855862924297</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>74.777923199100002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>74.777923199100002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>74.518889531012107</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>73.223721190572903</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70.892418177782403</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67.265946824552501</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58.458802109565902</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53.537162415896901</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49.651657394579303</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.651657394579303</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.651657394579303</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>49.910691062667198</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50.169724730755</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50.687792066930697</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>49.392623726491401</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>48.356489054140098</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>47.061320713700901</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>46.543253377525197</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>47.838421717964401</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>49.910691062667198</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>48.615522722227901</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>48.615522722228</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>49.651657394579303</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>51.205859403106402</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>48.874556390315803</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>46.0251860413495</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43.693883028558901</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42.916782024295401</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42.398714688119703</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42.139681020031901</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42.657748356207598</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42.916782024295401</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42.916782024295401</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43.693883028558901</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43.434849360471098</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42.139681020031901</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40.067411675329197</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>39.031277002977703</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>37.9951423306264</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>36.440940322099301</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>33.332536305045302</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>30.742199624166801</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>29.187997615639802</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>28.669930279464101</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28.1518629432884</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>27.892829275200501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-08E4-EE43-8B06-68DF180A7ADE}"/>
+              <c16:uniqueId val="{00000000-52BD-4649-A510-755ED338F532}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1064,11 +1076,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="911749951"/>
-        <c:axId val="911751583"/>
+        <c:axId val="935244559"/>
+        <c:axId val="935246191"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="911749951"/>
+        <c:axId val="935244559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,12 +1137,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="911751583"/>
+        <c:crossAx val="935246191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="911751583"/>
+        <c:axId val="935246191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,7 +1199,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="911749951"/>
+        <c:crossAx val="935244559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1236,7 +1248,1489 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>元データ!$J$98:$J$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>109.74746839095801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.26553572713399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108.970367386695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108.970367386695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107.15713171007999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.97645834832301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.494525684499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103.53066035685001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.090953327005707</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86.434438263052797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74.518889531012107</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.115317173518804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.302081496903895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.488845820289001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.675610143674206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.121408135147099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.753970450005198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.278128747809099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.356489054140098</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.061320713700901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.543253377525197</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43.952916696646803</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42.657748356207598</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41.103546347680499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43.434849360471098</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46.543253377525197</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50.687792066930697</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52.760061411633401</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>55.8684654286875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57.681701105302402</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59.753970450005099</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65.970778484113296</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>67.784014160728205</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68.8201488330796</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70.115317173518804</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71.410485513957994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71.928552850133698</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>72.964687522485093</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>74.259855862924297</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>74.777923199100002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>74.777923199100002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>74.518889531012107</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>73.223721190572903</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70.892418177782403</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67.265946824552501</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58.458802109565902</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53.537162415896901</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49.651657394579303</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.651657394579303</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.651657394579303</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>49.910691062667198</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50.169724730755</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50.687792066930697</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>49.392623726491401</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>48.356489054140098</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>47.061320713700901</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>46.543253377525197</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>47.838421717964401</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>49.910691062667198</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>48.615522722227901</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>48.615522722228</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>49.651657394579303</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>51.205859403106402</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>48.874556390315803</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>46.0251860413495</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43.693883028558901</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42.916782024295401</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42.398714688119703</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42.139681020031901</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42.657748356207598</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42.916782024295401</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42.916782024295401</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43.693883028558901</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43.434849360471098</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42.139681020031901</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40.067411675329197</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>39.031277002977703</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>37.9951423306264</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>36.440940322099301</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>33.332536305045302</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>30.742199624166801</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>29.187997615639802</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>28.669930279464101</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28.1518629432884</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>27.892829275200501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBDF-A344-9D9D-2157F21D237B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="936478527"/>
+        <c:axId val="903985887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="936478527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="903985887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="903985887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="936478527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>元データ!$K$98:$K$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>9.5433442255088742E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3716768322791421E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1293795635651962E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1681597488379365E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0572207905251518E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8908554049160794E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9162946492697768E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7681745602436554E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5992514120903814E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.429237670877724E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8508550793664009E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.2898388170502095E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9316072328216606E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.893127168757892E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8201944854355588E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8447580454376157E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7214949347369447E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8453336337846882E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.9697770496739879E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9290719732377163E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.1302240788334061E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2004571290218257E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.1876724633471098E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.328966069728173E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.2556245133290924E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.2872284007083604E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.3735267838196724E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.3394680570104329E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.4606780568038829E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4946633353716614E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.4124466704148934E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.3799515932903301E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.3296683256858031E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.3918184521332411E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.4091117544688176E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.3351510058890512E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.3782129547572779E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.273687846860665E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.2644912666332499E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.1487621698669403E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.1663542809679015E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.0758758033388188E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.0858695381515431E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.1026425001675733E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.9988781991368381E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.9469314919347316E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.8963520757587852E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.848517938902083E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.7797558508033567E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.8016555151375361E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.8201339645863265E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.7064257970738143E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.8503151028078612E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.77366827523868E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.7230275836111849E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.6881001365972845E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.7130837403329528E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.6148700355761845E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.6113465133546667E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.5873831354807972E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.6597665766488469E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.5605453141284516E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.5647860141302746E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.5786765052543161E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.5489652225557285E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.4513442680272717E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.487095336315341E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.4857789018849419E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.4226858306478309E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.4639689977195863E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.4531988251961252E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.3790638486146784E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.434128905813412E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.3765789350958323E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.3352410830437127E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.3516196586810023E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.3073320402957317E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.2720415226734608E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.2995808968622892E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.259659594475101E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.3367662076464128E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.2991148080265682E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.2544916581977429E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.2771097461587289E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.2567013816265402E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.2045223454589024E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.0847723418823163E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.0724664794436509E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.9490299114952506E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.0007436985284679E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.9840755184877269E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.9304218509144092E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.9136920932782661E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.910237972692905E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.8223200070897842E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.8415590661698999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5546-434C-B4B6-8905947F784F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="933308079"/>
+        <c:axId val="933251775"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="933308079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="933251775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="933251775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="933308079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>元データ!$M$61:$M$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.1619691644543509E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1165554585977072E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0256347209098031E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3788364175038819E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2898388170502095E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.328966069728173E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3351510058890512E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.848517938902083E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5873831354807972E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3790638486146784E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2771097461587289E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.84156E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9789845250055691E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFA0-4549-AFED-59E6C01EE75E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="932608351"/>
+        <c:axId val="938556367"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="932608351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="938556367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="938556367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="932608351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1792,27 +3286,1575 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>739297</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>176526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54095</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
+        <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7478C77D-9E4E-C048-BBF2-230F6ACD7EEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E5B77C-DC08-E346-8F71-DFD3A41AF1E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,6 +4867,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>541866</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>643466</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F48986-A08A-8846-8D5F-FEFE08BF3606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>541867</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715765D3-EDAA-EE45-B12D-EB9E1922B4C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>950951</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>53278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>721732</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>70624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5628A4D-1AC7-0443-9B79-389274542F8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2130,10 +5280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201083BE-F943-2C42-9F81-81E38B44A9E5}">
-  <dimension ref="A1:K258"/>
+  <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="B54" zoomScale="82" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2584,7 +5734,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>37956</v>
       </c>
@@ -2595,7 +5745,7 @@
         <v>32.130000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>37987</v>
       </c>
@@ -2609,7 +5759,7 @@
         <v>72.4280742682447</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>38018</v>
       </c>
@@ -2623,7 +5773,7 @@
         <v>73.681852408114494</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>38047</v>
       </c>
@@ -2637,7 +5787,7 @@
         <v>78.070075897658896</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>38078</v>
       </c>
@@ -2651,7 +5801,7 @@
         <v>80.891076712366001</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>38108</v>
       </c>
@@ -2665,7 +5815,7 @@
         <v>82.144854852235795</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>38139</v>
       </c>
@@ -2679,7 +5829,7 @@
         <v>83.085188457138202</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>38169</v>
       </c>
@@ -2693,7 +5843,7 @@
         <v>83.398632992105703</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>38200</v>
       </c>
@@ -2707,7 +5857,7 @@
         <v>83.712077527073205</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>38231</v>
       </c>
@@ -2721,7 +5871,7 @@
         <v>85.906189271845307</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>38261</v>
       </c>
@@ -2735,7 +5885,7 @@
         <v>87.473411946682603</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>38292</v>
       </c>
@@ -2749,7 +5899,7 @@
         <v>88.413745551584995</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>38322</v>
       </c>
@@ -2772,8 +5922,11 @@
       <c r="I61">
         <v>89.980968226422306</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="M61">
+        <v>1.1619691644543509E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>38353</v>
       </c>
@@ -2793,8 +5946,11 @@
       <c r="I62">
         <v>92.801969041129396</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="M62">
+        <v>1.1165554585977072E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>38384</v>
       </c>
@@ -2814,8 +5970,11 @@
       <c r="I63">
         <v>93.115413576096898</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="M63">
+        <v>1.0256347209098031E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>38412</v>
       </c>
@@ -2835,8 +5994,11 @@
       <c r="I64">
         <v>97.817081600608702</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="M64">
+        <v>9.3788364175038819E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>38443</v>
       </c>
@@ -2856,8 +6018,11 @@
       <c r="I65">
         <v>102.51874962511999</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="M65">
+        <v>7.2898388170502095E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>38473</v>
       </c>
@@ -2877,8 +6042,11 @@
       <c r="I66">
         <v>102.205305090153</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="M66">
+        <v>7.328966069728173E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>38504</v>
       </c>
@@ -2898,8 +6066,11 @@
       <c r="I67">
         <v>99.070859740478596</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="M67">
+        <v>7.3351510058890512E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>38534</v>
       </c>
@@ -2919,8 +6090,11 @@
       <c r="I68">
         <v>97.190192530673798</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="M68">
+        <v>6.848517938902083E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>38565</v>
       </c>
@@ -2940,8 +6114,14 @@
       <c r="I69">
         <v>93.742302646031803</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="K69">
+        <v>6.2771097461587289E-3</v>
+      </c>
+      <c r="M69">
+        <v>6.5873831354807972E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>38596</v>
       </c>
@@ -2961,8 +6141,11 @@
       <c r="I70">
         <v>90.921301831324698</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="M70">
+        <v>6.3790638486146784E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>38626</v>
       </c>
@@ -2982,8 +6165,11 @@
       <c r="I71">
         <v>90.294412761389694</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="M71">
+        <v>6.2771097461587289E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>38657</v>
       </c>
@@ -3003,8 +6189,11 @@
       <c r="I72">
         <v>89.667523691454804</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="M72" s="3">
+        <v>5.84156E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>38687</v>
       </c>
@@ -3027,8 +6216,11 @@
       <c r="I73">
         <v>89.040634621519899</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="M73">
+        <v>5.9789845250055691E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>38718</v>
       </c>
@@ -3049,7 +6241,7 @@
         <v>89.667523691454804</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>38749</v>
       </c>
@@ -3070,7 +6262,7 @@
         <v>90.921301831324698</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
         <v>38777</v>
       </c>
@@ -3091,7 +6283,7 @@
         <v>93.115413576096898</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
         <v>38808</v>
       </c>
@@ -3112,7 +6304,7 @@
         <v>94.369191715966707</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
         <v>38838</v>
       </c>
@@ -3133,7 +6325,7 @@
         <v>95.622969855836502</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
         <v>38869</v>
       </c>
@@ -3154,7 +6346,7 @@
         <v>96.876747995706395</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
         <v>38899</v>
       </c>
@@ -3514,7 +6706,7 @@
         <v>105.02630590486</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:12">
       <c r="A97" s="1">
         <v>39417</v>
       </c>
@@ -3538,7 +6730,7 @@
         <v>105.653194974795</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:12">
       <c r="A98" s="1">
         <v>39448</v>
       </c>
@@ -3564,8 +6756,11 @@
       <c r="K98">
         <v>9.5433442255088742E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98">
+        <v>109.74746839095801</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1">
         <v>39479</v>
       </c>
@@ -3591,8 +6786,11 @@
       <c r="K99">
         <v>9.3716768322791421E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99">
+        <v>110.26553572713399</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1">
         <v>39508</v>
       </c>
@@ -3618,8 +6816,11 @@
       <c r="K100">
         <v>9.1293795635651962E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100">
+        <v>108.970367386695</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1">
         <v>39539</v>
       </c>
@@ -3645,8 +6846,11 @@
       <c r="K101">
         <v>9.1681597488379365E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101">
+        <v>108.970367386695</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1">
         <v>39569</v>
       </c>
@@ -3672,8 +6876,11 @@
       <c r="K102">
         <v>9.0572207905251518E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102">
+        <v>107.15713171007999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1">
         <v>39600</v>
       </c>
@@ -3699,8 +6906,11 @@
       <c r="K103">
         <v>8.8908554049160794E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103">
+        <v>101.97645834832301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1">
         <v>39630</v>
       </c>
@@ -3726,8 +6936,11 @@
       <c r="K104">
         <v>8.9162946492697768E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104">
+        <v>102.494525684499</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="1">
         <v>39661</v>
       </c>
@@ -3753,8 +6966,11 @@
       <c r="K105">
         <v>8.7681745602436554E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105">
+        <v>103.53066035685001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="1">
         <v>39692</v>
       </c>
@@ -3780,8 +6996,11 @@
       <c r="K106">
         <v>8.5992514120903814E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106">
+        <v>98.090953327005707</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="1">
         <v>39722</v>
       </c>
@@ -3807,8 +7026,11 @@
       <c r="K107">
         <v>8.429237670877724E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107">
+        <v>86.434438263052797</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="1">
         <v>39753</v>
       </c>
@@ -3834,8 +7056,11 @@
       <c r="K108">
         <v>7.8508550793664009E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108">
+        <v>74.518889531012107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="1">
         <v>39783</v>
       </c>
@@ -3864,8 +7089,11 @@
       <c r="K109">
         <v>7.2898388170502095E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109">
+        <v>70.115317173518804</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="1">
         <v>39814</v>
       </c>
@@ -3891,8 +7119,11 @@
       <c r="K110">
         <v>6.9316072328216606E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110">
+        <v>68.302081496903895</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="1">
         <v>39845</v>
       </c>
@@ -3918,8 +7149,11 @@
       <c r="K111">
         <v>6.893127168757892E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111">
+        <v>66.488845820289001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="1">
         <v>39873</v>
       </c>
@@ -3945,8 +7179,11 @@
       <c r="K112">
         <v>6.8201944854355588E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="L112">
+        <v>64.675610143674206</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="1">
         <v>39904</v>
       </c>
@@ -3972,8 +7209,11 @@
       <c r="K113">
         <v>6.8447580454376157E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="L113">
+        <v>63.121408135147099</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="1">
         <v>39934</v>
       </c>
@@ -3999,8 +7239,11 @@
       <c r="K114">
         <v>6.7214949347369447E-3</v>
       </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="L114">
+        <v>59.753970450005198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="1">
         <v>39965</v>
       </c>
@@ -4026,8 +7269,11 @@
       <c r="K115">
         <v>6.8453336337846882E-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="L115">
+        <v>53.278128747809099</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="1">
         <v>39995</v>
       </c>
@@ -4053,8 +7299,11 @@
       <c r="K116">
         <v>6.9697770496739879E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="L116">
+        <v>48.356489054140098</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="1">
         <v>40026</v>
       </c>
@@ -4080,8 +7329,11 @@
       <c r="K117">
         <v>6.9290719732377163E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="L117">
+        <v>47.061320713700901</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="1">
         <v>40057</v>
       </c>
@@ -4107,8 +7359,11 @@
       <c r="K118">
         <v>7.1302240788334061E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="L118">
+        <v>46.543253377525197</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="1">
         <v>40087</v>
       </c>
@@ -4134,8 +7389,11 @@
       <c r="K119">
         <v>7.2004571290218257E-3</v>
       </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="L119">
+        <v>43.952916696646803</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="1">
         <v>40118</v>
       </c>
@@ -4161,8 +7419,11 @@
       <c r="K120">
         <v>7.1876724633471098E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="L120">
+        <v>42.657748356207598</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="1">
         <v>40148</v>
       </c>
@@ -4191,8 +7452,11 @@
       <c r="K121">
         <v>7.328966069728173E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="L121">
+        <v>41.103546347680499</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="1">
         <v>40179</v>
       </c>
@@ -4218,8 +7482,11 @@
       <c r="K122">
         <v>7.2556245133290924E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="L122">
+        <v>43.434849360471098</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="1">
         <v>40210</v>
       </c>
@@ -4245,8 +7512,11 @@
       <c r="K123">
         <v>7.2872284007083604E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="L123">
+        <v>46.543253377525197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="1">
         <v>40238</v>
       </c>
@@ -4272,8 +7542,11 @@
       <c r="K124">
         <v>7.3735267838196724E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="L124">
+        <v>50.687792066930697</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="1">
         <v>40269</v>
       </c>
@@ -4299,8 +7572,11 @@
       <c r="K125">
         <v>7.3394680570104329E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="L125">
+        <v>52.760061411633401</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="1">
         <v>40299</v>
       </c>
@@ -4326,8 +7602,11 @@
       <c r="K126">
         <v>7.4606780568038829E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="L126">
+        <v>55.8684654286875</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="1">
         <v>40330</v>
       </c>
@@ -4353,8 +7632,11 @@
       <c r="K127">
         <v>7.4946633353716614E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="L127">
+        <v>57.681701105302402</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="1">
         <v>40360</v>
       </c>
@@ -4380,8 +7662,11 @@
       <c r="K128">
         <v>7.4124466704148934E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="L128">
+        <v>59.753970450005099</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="1">
         <v>40391</v>
       </c>
@@ -4407,8 +7692,11 @@
       <c r="K129">
         <v>7.3799515932903301E-3</v>
       </c>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="L129">
+        <v>65.970778484113296</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="1">
         <v>40422</v>
       </c>
@@ -4434,8 +7722,11 @@
       <c r="K130">
         <v>7.3296683256858031E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="L130">
+        <v>67.784014160728205</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="1">
         <v>40452</v>
       </c>
@@ -4461,8 +7752,11 @@
       <c r="K131">
         <v>7.3918184521332411E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="L131">
+        <v>68.8201488330796</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="1">
         <v>40483</v>
       </c>
@@ -4488,8 +7782,11 @@
       <c r="K132">
         <v>7.4091117544688176E-3</v>
       </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="L132">
+        <v>70.115317173518804</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="1">
         <v>40513</v>
       </c>
@@ -4518,8 +7815,11 @@
       <c r="K133">
         <v>7.3351510058890512E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="L133">
+        <v>71.410485513957994</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="1">
         <v>40544</v>
       </c>
@@ -4551,8 +7851,11 @@
       <c r="K134">
         <v>7.3782129547572779E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="L134">
+        <v>71.928552850133698</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="1">
         <v>40575</v>
       </c>
@@ -4584,8 +7887,11 @@
       <c r="K135">
         <v>7.273687846860665E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="L135">
+        <v>72.964687522485093</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="1">
         <v>40603</v>
       </c>
@@ -4617,8 +7923,11 @@
       <c r="K136">
         <v>7.2644912666332499E-3</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="L136">
+        <v>74.259855862924297</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="1">
         <v>40634</v>
       </c>
@@ -4650,8 +7959,11 @@
       <c r="K137">
         <v>7.1487621698669403E-3</v>
       </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="L137">
+        <v>74.777923199100002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="1">
         <v>40664</v>
       </c>
@@ -4683,8 +7995,11 @@
       <c r="K138">
         <v>7.1663542809679015E-3</v>
       </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="L138">
+        <v>74.777923199100002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="1">
         <v>40695</v>
       </c>
@@ -4716,8 +8031,11 @@
       <c r="K139">
         <v>7.0758758033388188E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="L139">
+        <v>74.518889531012107</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="1">
         <v>40725</v>
       </c>
@@ -4749,8 +8067,11 @@
       <c r="K140">
         <v>7.0858695381515431E-3</v>
       </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="L140">
+        <v>73.223721190572903</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="1">
         <v>40756</v>
       </c>
@@ -4782,8 +8103,11 @@
       <c r="K141">
         <v>7.1026425001675733E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="L141">
+        <v>70.892418177782403</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="1">
         <v>40787</v>
       </c>
@@ -4815,8 +8139,11 @@
       <c r="K142">
         <v>6.9988781991368381E-3</v>
       </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="L142">
+        <v>67.265946824552501</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="1">
         <v>40817</v>
       </c>
@@ -4848,8 +8175,11 @@
       <c r="K143">
         <v>6.9469314919347316E-3</v>
       </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="L143">
+        <v>58.458802109565902</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="1">
         <v>40848</v>
       </c>
@@ -4881,8 +8211,11 @@
       <c r="K144">
         <v>6.8963520757587852E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="L144">
+        <v>53.537162415896901</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="1">
         <v>40878</v>
       </c>
@@ -4917,8 +8250,11 @@
       <c r="K145">
         <v>6.848517938902083E-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="L145">
+        <v>49.651657394579303</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="1">
         <v>40909</v>
       </c>
@@ -4950,8 +8286,11 @@
       <c r="K146">
         <v>6.7797558508033567E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="L146">
+        <v>49.651657394579303</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="1">
         <v>40940</v>
       </c>
@@ -4983,8 +8322,11 @@
       <c r="K147">
         <v>6.8016555151375361E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="L147">
+        <v>49.651657394579303</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="1">
         <v>40969</v>
       </c>
@@ -5016,8 +8358,11 @@
       <c r="K148">
         <v>6.8201339645863265E-3</v>
       </c>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="L148">
+        <v>49.910691062667198</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="1">
         <v>41000</v>
       </c>
@@ -5049,8 +8394,11 @@
       <c r="K149">
         <v>6.7064257970738143E-3</v>
       </c>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="L149">
+        <v>50.169724730755</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="1">
         <v>41030</v>
       </c>
@@ -5082,8 +8430,11 @@
       <c r="K150">
         <v>6.8503151028078612E-3</v>
       </c>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="L150">
+        <v>50.9468257350185</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="1">
         <v>41061</v>
       </c>
@@ -5115,8 +8466,11 @@
       <c r="K151">
         <v>6.77366827523868E-3</v>
       </c>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="L151">
+        <v>50.9468257350185</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="1">
         <v>41091</v>
       </c>
@@ -5148,8 +8502,11 @@
       <c r="K152">
         <v>6.7230275836111849E-3</v>
       </c>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="L152">
+        <v>50.9468257350185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" s="1">
         <v>41122</v>
       </c>
@@ -5181,8 +8538,11 @@
       <c r="K153">
         <v>6.6881001365972845E-3</v>
       </c>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="L153">
+        <v>50.687792066930697</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" s="1">
         <v>41153</v>
       </c>
@@ -5214,8 +8574,11 @@
       <c r="K154">
         <v>6.7130837403329528E-3</v>
       </c>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="L154">
+        <v>49.392623726491401</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" s="1">
         <v>41183</v>
       </c>
@@ -5247,8 +8610,11 @@
       <c r="K155">
         <v>6.6148700355761845E-3</v>
       </c>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="L155">
+        <v>48.356489054140098</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" s="1">
         <v>41214</v>
       </c>
@@ -5280,8 +8646,11 @@
       <c r="K156">
         <v>6.6113465133546667E-3</v>
       </c>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="L156">
+        <v>47.061320713700901</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" s="1">
         <v>41244</v>
       </c>
@@ -5316,8 +8685,11 @@
       <c r="K157">
         <v>6.5873831354807972E-3</v>
       </c>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="L157">
+        <v>46.543253377525197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" s="1">
         <v>41275</v>
       </c>
@@ -5349,8 +8721,11 @@
       <c r="K158">
         <v>6.6597665766488469E-3</v>
       </c>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="L158">
+        <v>47.838421717964401</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="1">
         <v>41306</v>
       </c>
@@ -5382,8 +8757,11 @@
       <c r="K159">
         <v>6.5605453141284516E-3</v>
       </c>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="L159">
+        <v>49.910691062667198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="1">
         <v>41334</v>
       </c>
@@ -5415,8 +8793,11 @@
       <c r="K160">
         <v>6.5647860141302746E-3</v>
       </c>
-    </row>
-    <row r="161" spans="1:11">
+      <c r="L160">
+        <v>50.9468257350185</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" s="1">
         <v>41365</v>
       </c>
@@ -5448,8 +8829,11 @@
       <c r="K161">
         <v>6.5786765052543161E-3</v>
       </c>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="L161">
+        <v>48.615522722227901</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" s="1">
         <v>41395</v>
       </c>
@@ -5481,8 +8865,11 @@
       <c r="K162">
         <v>6.5489652225557285E-3</v>
       </c>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="L162">
+        <v>48.615522722228</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" s="1">
         <v>41426</v>
       </c>
@@ -5514,8 +8901,11 @@
       <c r="K163">
         <v>6.4513442680272717E-3</v>
       </c>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="L163">
+        <v>49.651657394579303</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" s="1">
         <v>41456</v>
       </c>
@@ -5547,8 +8937,11 @@
       <c r="K164">
         <v>6.487095336315341E-3</v>
       </c>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="L164">
+        <v>50.9468257350185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" s="1">
         <v>41487</v>
       </c>
@@ -5580,8 +8973,11 @@
       <c r="K165">
         <v>6.4857789018849419E-3</v>
       </c>
-    </row>
-    <row r="166" spans="1:11">
+      <c r="L165">
+        <v>51.205859403106402</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" s="1">
         <v>41518</v>
       </c>
@@ -5613,8 +9009,11 @@
       <c r="K166">
         <v>6.4226858306478309E-3</v>
       </c>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="L166">
+        <v>51.464893071194197</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="1">
         <v>41548</v>
       </c>
@@ -5646,8 +9045,11 @@
       <c r="K167">
         <v>6.4639689977195863E-3</v>
       </c>
-    </row>
-    <row r="168" spans="1:11">
+      <c r="L167">
+        <v>51.464893071194197</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="1">
         <v>41579</v>
       </c>
@@ -5679,8 +9081,11 @@
       <c r="K168">
         <v>6.4531988251961252E-3</v>
       </c>
-    </row>
-    <row r="169" spans="1:11">
+      <c r="L168">
+        <v>51.464893071194197</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" s="1">
         <v>41609</v>
       </c>
@@ -5715,8 +9120,11 @@
       <c r="K169">
         <v>6.3790638486146784E-3</v>
       </c>
-    </row>
-    <row r="170" spans="1:11">
+      <c r="L169">
+        <v>51.464893071194197</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="1">
         <v>41640</v>
       </c>
@@ -5748,8 +9156,11 @@
       <c r="K170">
         <v>6.434128905813412E-3</v>
       </c>
-    </row>
-    <row r="171" spans="1:11">
+      <c r="L170">
+        <v>51.464893071194197</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="1">
         <v>41671</v>
       </c>
@@ -5781,8 +9192,11 @@
       <c r="K171">
         <v>6.3765789350958323E-3</v>
       </c>
-    </row>
-    <row r="172" spans="1:11">
+      <c r="L171">
+        <v>51.464893071194197</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" s="1">
         <v>41699</v>
       </c>
@@ -5814,8 +9228,11 @@
       <c r="K172">
         <v>6.3352410830437127E-3</v>
       </c>
-    </row>
-    <row r="173" spans="1:11">
+      <c r="L172">
+        <v>51.464893071194197</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" s="1">
         <v>41730</v>
       </c>
@@ -5847,8 +9264,11 @@
       <c r="K173">
         <v>6.3516196586810023E-3</v>
       </c>
-    </row>
-    <row r="174" spans="1:11">
+      <c r="L173">
+        <v>51.464893071194197</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" s="1">
         <v>41760</v>
       </c>
@@ -5880,8 +9300,11 @@
       <c r="K174">
         <v>6.3073320402957317E-3</v>
       </c>
-    </row>
-    <row r="175" spans="1:11">
+      <c r="L174">
+        <v>51.464893071194197</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" s="1">
         <v>41791</v>
       </c>
@@ -5913,8 +9336,11 @@
       <c r="K175">
         <v>6.2720415226734608E-3</v>
       </c>
-    </row>
-    <row r="176" spans="1:11">
+      <c r="L175">
+        <v>50.9468257350185</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" s="1">
         <v>41821</v>
       </c>
@@ -5946,8 +9372,11 @@
       <c r="K176">
         <v>6.2995808968622892E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:11">
+      <c r="L176">
+        <v>48.874556390315803</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" s="1">
         <v>41852</v>
       </c>
@@ -5979,8 +9408,11 @@
       <c r="K177">
         <v>6.259659594475101E-3</v>
       </c>
-    </row>
-    <row r="178" spans="1:11">
+      <c r="L177">
+        <v>46.0251860413495</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" s="1">
         <v>41883</v>
       </c>
@@ -6012,8 +9444,11 @@
       <c r="K178">
         <v>6.3367662076464128E-3</v>
       </c>
-    </row>
-    <row r="179" spans="1:11">
+      <c r="L178">
+        <v>43.693883028558901</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" s="1">
         <v>41913</v>
       </c>
@@ -6045,8 +9480,11 @@
       <c r="K179">
         <v>6.2991148080265682E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:11">
+      <c r="L179">
+        <v>42.916782024295401</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" s="1">
         <v>41944</v>
       </c>
@@ -6078,8 +9516,11 @@
       <c r="K180">
         <v>6.2544916581977429E-3</v>
       </c>
-    </row>
-    <row r="181" spans="1:11">
+      <c r="L180">
+        <v>42.398714688119703</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" s="1">
         <v>41974</v>
       </c>
@@ -6114,8 +9555,11 @@
       <c r="K181">
         <v>6.2771097461587289E-3</v>
       </c>
-    </row>
-    <row r="182" spans="1:11">
+      <c r="L181">
+        <v>42.139681020031901</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" s="1">
         <v>42005</v>
       </c>
@@ -6147,8 +9591,11 @@
       <c r="K182">
         <v>6.2567013816265402E-3</v>
       </c>
-    </row>
-    <row r="183" spans="1:11">
+      <c r="L182">
+        <v>42.657748356207598</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" s="1">
         <v>42036</v>
       </c>
@@ -6180,8 +9627,11 @@
       <c r="K183">
         <v>6.2045223454589024E-3</v>
       </c>
-    </row>
-    <row r="184" spans="1:11">
+      <c r="L183">
+        <v>42.916782024295401</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" s="1">
         <v>42064</v>
       </c>
@@ -6213,8 +9663,11 @@
       <c r="K184">
         <v>6.0847723418823163E-3</v>
       </c>
-    </row>
-    <row r="185" spans="1:11">
+      <c r="L184">
+        <v>42.916782024295401</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" s="1">
         <v>42095</v>
       </c>
@@ -6246,8 +9699,11 @@
       <c r="K185">
         <v>6.0724664794436509E-3</v>
       </c>
-    </row>
-    <row r="186" spans="1:11">
+      <c r="L185">
+        <v>43.693883028558901</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" s="1">
         <v>42125</v>
       </c>
@@ -6279,8 +9735,11 @@
       <c r="K186">
         <v>5.9490299114952506E-3</v>
       </c>
-    </row>
-    <row r="187" spans="1:11">
+      <c r="L186">
+        <v>43.434849360471098</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" s="1">
         <v>42156</v>
       </c>
@@ -6312,8 +9771,11 @@
       <c r="K187">
         <v>6.0007436985284679E-3</v>
       </c>
-    </row>
-    <row r="188" spans="1:11">
+      <c r="L187">
+        <v>42.139681020031901</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" s="1">
         <v>42186</v>
       </c>
@@ -6345,8 +9807,11 @@
       <c r="K188">
         <v>5.9840755184877269E-3</v>
       </c>
-    </row>
-    <row r="189" spans="1:11">
+      <c r="L188">
+        <v>40.067411675329197</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189" s="1">
         <v>42217</v>
       </c>
@@ -6378,8 +9843,11 @@
       <c r="K189">
         <v>5.9304218509144092E-3</v>
       </c>
-    </row>
-    <row r="190" spans="1:11">
+      <c r="L189">
+        <v>39.031277002977703</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" s="1">
         <v>42248</v>
       </c>
@@ -6411,8 +9879,11 @@
       <c r="K190">
         <v>5.9136920932782661E-3</v>
       </c>
-    </row>
-    <row r="191" spans="1:11">
+      <c r="L190">
+        <v>37.9951423306264</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" s="1">
         <v>42278</v>
       </c>
@@ -6444,8 +9915,11 @@
       <c r="K191">
         <v>5.910237972692905E-3</v>
       </c>
-    </row>
-    <row r="192" spans="1:11">
+      <c r="L191">
+        <v>36.440940322099301</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" s="1">
         <v>42309</v>
       </c>
@@ -6477,8 +9951,11 @@
       <c r="K192">
         <v>5.8223200070897842E-3</v>
       </c>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="L192">
+        <v>33.332536305045302</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" s="1">
         <v>42339</v>
       </c>
@@ -6513,8 +9990,11 @@
       <c r="K193">
         <v>5.8415590661698999E-3</v>
       </c>
-    </row>
-    <row r="194" spans="1:11">
+      <c r="L193">
+        <v>30.742199624166801</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" s="1">
         <v>42370</v>
       </c>
@@ -6546,8 +10026,11 @@
       <c r="K194">
         <v>5.7767577353661009E-3</v>
       </c>
-    </row>
-    <row r="195" spans="1:11">
+      <c r="L194">
+        <v>29.187997615639802</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" s="1">
         <v>42401</v>
       </c>
@@ -6580,8 +10063,11 @@
       <c r="K195">
         <v>5.8585290585320545E-3</v>
       </c>
-    </row>
-    <row r="196" spans="1:11">
+      <c r="L195">
+        <v>28.669930279464101</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" s="1">
         <v>42430</v>
       </c>
@@ -6614,8 +10100,11 @@
       <c r="K196">
         <v>5.7545087594091989E-3</v>
       </c>
-    </row>
-    <row r="197" spans="1:11">
+      <c r="L196">
+        <v>28.1518629432884</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197" s="1">
         <v>42461</v>
       </c>
@@ -6648,8 +10137,11 @@
       <c r="K197">
         <v>5.81023776501701E-3</v>
       </c>
-    </row>
-    <row r="198" spans="1:11">
+      <c r="L197">
+        <v>27.892829275200501</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198" s="1">
         <v>42491</v>
       </c>
@@ -6680,7 +10172,7 @@
         <v>5.76365048949792E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:12">
       <c r="A199" s="1">
         <v>42522</v>
       </c>
@@ -6711,7 +10203,7 @@
         <v>5.8319717333103005E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:12">
       <c r="A200" s="1">
         <v>42552</v>
       </c>
@@ -6739,7 +10231,7 @@
         <v>5.7548595294238235E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:12">
       <c r="A201" s="1">
         <v>42583</v>
       </c>
@@ -6767,7 +10259,7 @@
         <v>5.8534766556899483E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:12">
       <c r="A202" s="1">
         <v>42614</v>
       </c>
@@ -6795,7 +10287,7 @@
         <v>5.8331122653898816E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:12">
       <c r="A203" s="1">
         <v>42644</v>
       </c>
@@ -6823,7 +10315,7 @@
         <v>5.7998271170779034E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:12">
       <c r="A204" s="1">
         <v>42675</v>
       </c>
@@ -6851,7 +10343,7 @@
         <v>5.9143976974953879E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:12">
       <c r="A205" s="1">
         <v>42705</v>
       </c>
@@ -6881,7 +10373,7 @@
         <v>5.9789845250055691E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:12">
       <c r="A206" t="s">
         <v>36</v>
       </c>
@@ -6905,14 +10397,18 @@
         <f>AVERAGE(J98:J197)</f>
         <v>57.161043432445858</v>
       </c>
-    </row>
-    <row r="207" spans="1:11">
+      <c r="L206">
+        <f>AVERAGE(L98:L197)</f>
+        <v>57.161043432445858</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
       <c r="B207" s="10">
         <v>118.211303825436</v>
       </c>
       <c r="F207" s="9"/>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:12">
       <c r="B208" s="10">
         <v>120.858802941861</v>
       </c>
@@ -8835,7 +12331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778AA02C-85B6-8441-AC36-F432356D488B}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>

--- a/data/correlation/regression.xlsx
+++ b/data/correlation/regression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinoriokubo/Documents/simulator/data/correlation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69C9984-1DDD-024B-A4D3-327EB709FBF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E594436C-0B6F-2D41-9903-F042CA9845E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="480" windowWidth="25740" windowHeight="15860" xr2:uid="{CA90CC09-E6FD-5A43-8559-1E712E5E9A16}"/>
+    <workbookView xWindow="1260" yWindow="460" windowWidth="25740" windowHeight="15860" xr2:uid="{CA90CC09-E6FD-5A43-8559-1E712E5E9A16}"/>
   </bookViews>
   <sheets>
     <sheet name="元データ" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,6 @@
     <sheet name="中古船価格" sheetId="7" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.1" hidden="1">元データ!$M$61:$M$73</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">元データ!$M$61:$M$73</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="38">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2"/>
@@ -220,6 +216,13 @@
     <t>平均</t>
     <rPh sb="0" eb="2">
       <t>ヘイキn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3ヶ月遅れ</t>
+    <rPh sb="3" eb="4">
+      <t>オク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4874,16 +4877,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>541866</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>340525</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:rowOff>94901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>643466</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>442124</xdr:colOff>
       <xdr:row>209</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>179039</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4910,16 +4913,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>252141</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>93133</xdr:rowOff>
+      <xdr:rowOff>62158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>541867</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>108207</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
+      <xdr:rowOff>36758</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5282,8 +5285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201083BE-F943-2C42-9F81-81E38B44A9E5}">
   <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B54" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10379,6 +10382,10 @@
       </c>
       <c r="B206" s="10">
         <v>118.46155884069501</v>
+      </c>
+      <c r="E206">
+        <f>AVERAGE(E61:E205)</f>
+        <v>7.7855163756642047E-3</v>
       </c>
       <c r="F206" s="9"/>
       <c r="G206">
@@ -11651,10 +11658,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD7738C-2A79-9E44-8489-03F493A35CD5}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11812,7 +11819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -11841,7 +11848,7 @@
         <v>25.814947715149621</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="21" thickBot="1">
+    <row r="18" spans="1:13" ht="21" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
@@ -11870,64 +11877,107 @@
         <v>8957.4802858724634</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="21" thickBot="1"/>
-    <row r="24" spans="1:9">
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="21" thickBot="1">
+      <c r="L23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="21" thickBot="1">
       <c r="A24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="4">
         <v>0.83469347240141945</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="L25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="4">
         <v>0.69671319286953926</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="L26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.87639745625964138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="4">
         <v>0.69449942055471836</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="L27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.76807250133837002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="4">
         <v>9.2266389783413878</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="21" thickBot="1">
+      <c r="L28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.76634169910955185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="21" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="5">
         <v>139</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="21" thickBot="1">
+      <c r="L29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="4">
+        <v>8.1016178276528734</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="21" thickBot="1">
+      <c r="L30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="21" thickBot="1">
       <c r="A31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:13" ht="21" thickBot="1">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
         <v>21</v>
@@ -11944,8 +11994,11 @@
       <c r="F32" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="L32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
@@ -11964,8 +12017,24 @@
       <c r="F33" s="4">
         <v>2.6114188531277302E-37</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="L33" s="6"/>
+      <c r="M33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -11980,8 +12049,26 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" ht="21" thickBot="1">
+      <c r="L34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="4">
+        <v>1</v>
+      </c>
+      <c r="N34" s="4">
+        <v>29127.169036673586</v>
+      </c>
+      <c r="O34" s="4">
+        <v>29127.169036673586</v>
+      </c>
+      <c r="P34" s="4">
+        <v>443.76676234282564</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>2.3578578018914159E-44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="21" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>19</v>
       </c>
@@ -11994,9 +12081,36 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" ht="21" thickBot="1"/>
-    <row r="37" spans="1:9">
+      <c r="L35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="4">
+        <v>134</v>
+      </c>
+      <c r="N35" s="4">
+        <v>8795.2523309959433</v>
+      </c>
+      <c r="O35" s="4">
+        <v>65.636211425342864</v>
+      </c>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="1:20" ht="21" thickBot="1">
+      <c r="L36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="5">
+        <v>135</v>
+      </c>
+      <c r="N36" s="5">
+        <v>37922.421367669529</v>
+      </c>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:20" ht="21" thickBot="1">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
         <v>26</v>
@@ -12023,7 +12137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:20">
       <c r="A38" s="4" t="s">
         <v>20</v>
       </c>
@@ -12051,8 +12165,33 @@
       <c r="I38" s="4">
         <v>24.963791135669272</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="21" thickBot="1">
+      <c r="L38" s="6"/>
+      <c r="M38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="21" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>33</v>
       </c>
@@ -12080,20 +12219,76 @@
       <c r="I39" s="5">
         <v>8595.4267365212418</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="L39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="4">
+        <v>13.799323189696906</v>
+      </c>
+      <c r="N39" s="4">
+        <v>3.1522031980622183</v>
+      </c>
+      <c r="O39" s="4">
+        <v>4.3776756518043909</v>
+      </c>
+      <c r="P39" s="4">
+        <v>2.3955010567687073E-5</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>7.5648145098448412</v>
+      </c>
+      <c r="R39" s="4">
+        <v>20.033831869548973</v>
+      </c>
+      <c r="S39" s="4">
+        <v>7.5648145098448412</v>
+      </c>
+      <c r="T39" s="4">
+        <v>20.033831869548973</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="21" thickBot="1">
+      <c r="L40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M40" s="5">
+        <v>8183.9208974144958</v>
+      </c>
+      <c r="N40" s="5">
+        <v>388.49375105720247</v>
+      </c>
+      <c r="O40" s="5">
+        <v>21.065772294003981</v>
+      </c>
+      <c r="P40" s="5">
+        <v>2.3578578018914154E-44</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>7415.5479497176739</v>
+      </c>
+      <c r="R40" s="5">
+        <v>8952.2938451113187</v>
+      </c>
+      <c r="S40" s="5">
+        <v>7415.5479497176739</v>
+      </c>
+      <c r="T40" s="5">
+        <v>8952.2938451113187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="21" thickBot="1"/>
-    <row r="45" spans="1:9">
+    <row r="44" spans="1:20" ht="21" thickBot="1"/>
+    <row r="45" spans="1:20">
       <c r="A45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B45" s="7"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:20">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -12101,7 +12296,7 @@
         <v>0.83476701933377739</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:20">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -12109,7 +12304,7 @@
         <v>0.69683597656739915</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:20">
       <c r="A48" s="4" t="s">
         <v>13</v>
       </c>
@@ -12329,10 +12524,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778AA02C-85B6-8441-AC36-F432356D488B}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -12490,7 +12685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:19">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -12519,7 +12714,7 @@
         <v>-25.218390560424417</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="21" thickBot="1">
+    <row r="18" spans="1:19" ht="21" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
@@ -12548,64 +12743,109 @@
         <v>14903.552992116583</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="21" spans="1:19">
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="21" thickBot="1"/>
-    <row r="24" spans="1:9">
+      <c r="N22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="21" thickBot="1"/>
+    <row r="24" spans="1:19">
       <c r="A24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="N24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="4">
         <v>0.9161870951639326</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="N25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.913803245478093</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="4">
         <v>0.83939879334492484</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="N26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.83503637144629594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="4">
         <v>0.83776000552191388</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="N27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.83329991219836219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="4">
         <v>7.7885686653018782</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="21" thickBot="1">
+      <c r="N28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28" s="4">
+        <v>7.033725319353751</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="21" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="21" thickBot="1">
+      <c r="N29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="21" thickBot="1">
       <c r="A31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="N31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
         <v>21</v>
@@ -12622,8 +12862,24 @@
       <c r="F32" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="N32" s="6"/>
+      <c r="O32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
@@ -12642,8 +12898,26 @@
       <c r="F33" s="4">
         <v>1.0570591469150892E-40</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="N33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="4">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4">
+        <v>23790.940198691904</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>23790.940198691904</v>
+      </c>
+      <c r="R33" s="4">
+        <v>480.884519714433</v>
+      </c>
+      <c r="S33" s="4">
+        <v>5.9723066722354443E-39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -12658,8 +12932,22 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" ht="21" thickBot="1">
+      <c r="N34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" s="4">
+        <v>95</v>
+      </c>
+      <c r="P34" s="4">
+        <v>4699.9627274712129</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>49.473291868118032</v>
+      </c>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+    </row>
+    <row r="35" spans="1:22" ht="21" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>19</v>
       </c>
@@ -12672,9 +12960,21 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" ht="21" thickBot="1"/>
-    <row r="37" spans="1:9">
+      <c r="N35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35" s="5">
+        <v>96</v>
+      </c>
+      <c r="P35" s="5">
+        <v>28490.902926163115</v>
+      </c>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+    </row>
+    <row r="36" spans="1:22" ht="21" thickBot="1"/>
+    <row r="37" spans="1:22">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
         <v>26</v>
@@ -12700,8 +13000,33 @@
       <c r="I37" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="N37" s="6"/>
+      <c r="O37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="4" t="s">
         <v>20</v>
       </c>
@@ -12729,8 +13054,35 @@
       <c r="I38" s="4">
         <v>-74.943112930311486</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="21" thickBot="1">
+      <c r="N38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="4">
+        <v>-75.490431374765109</v>
+      </c>
+      <c r="P38" s="4">
+        <v>6.0175977698946088</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>-12.544944720704926</v>
+      </c>
+      <c r="R38" s="4">
+        <v>7.1853157961632076E-22</v>
+      </c>
+      <c r="S38" s="4">
+        <v>-87.436873386140832</v>
+      </c>
+      <c r="T38" s="4">
+        <v>-63.543989363389393</v>
+      </c>
+      <c r="U38" s="4">
+        <v>-87.436873386140832</v>
+      </c>
+      <c r="V38" s="4">
+        <v>-63.543989363389393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="21" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>33</v>
       </c>
@@ -12758,20 +13110,47 @@
       <c r="I39" s="5">
         <v>22770.228089702781</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="N39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="5">
+        <v>18836.1650523319</v>
+      </c>
+      <c r="P39" s="5">
+        <v>858.95831647050068</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>21.929079317527968</v>
+      </c>
+      <c r="R39" s="5">
+        <v>5.9723066722354443E-39</v>
+      </c>
+      <c r="S39" s="5">
+        <v>17130.917192589448</v>
+      </c>
+      <c r="T39" s="5">
+        <v>20541.412912074353</v>
+      </c>
+      <c r="U39" s="5">
+        <v>17130.917192589448</v>
+      </c>
+      <c r="V39" s="5">
+        <v>20541.412912074353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="21" thickBot="1"/>
-    <row r="45" spans="1:9">
+    <row r="44" spans="1:22" ht="21" thickBot="1"/>
+    <row r="45" spans="1:22">
       <c r="A45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B45" s="7"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:22">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -12779,7 +13158,7 @@
         <v>0.91990926087152292</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:22">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -12787,7 +13166,7 @@
         <v>0.84623304823719159</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:22">
       <c r="A48" s="4" t="s">
         <v>13</v>
       </c>

--- a/data/correlation/regression.xlsx
+++ b/data/correlation/regression.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinoriokubo/Documents/simulator/data/correlation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E594436C-0B6F-2D41-9903-F042CA9845E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11A321D-58EC-F64C-BA51-1A768E0D7190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="460" windowWidth="25740" windowHeight="15860" xr2:uid="{CA90CC09-E6FD-5A43-8559-1E712E5E9A16}"/>
   </bookViews>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="40">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2"/>
@@ -224,6 +226,20 @@
     <rPh sb="3" eb="4">
       <t>オク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>三ヶ月遅れ</t>
+    <rPh sb="0" eb="1">
+      <t>３カゲテゥ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オクレ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重相関 R</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2613,6 +2629,1893 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>元データ!$E$61:$E$205</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="145"/>
+                <c:pt idx="0">
+                  <c:v>1.1619691644543509E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14580339239007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1276117363049511E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1191711013953791E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1379159962873002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1284030198495129E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1210423076055673E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0991111341806768E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1037453098618342E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.100249578589311E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0989650220723986E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1009297654284033E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1165554585977072E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0974443401239512E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0928102978012564E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0936069182206772E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0805758088385204E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0685515063175827E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0656442696920435E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0398628933410396E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0413981134418385E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0418868002624967E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0296540267406923E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0341528262218996E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0256347209098031E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0179214460274614E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0095420239427449E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.9943575599043266E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.9163895956703007E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.8275693548032245E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.8021711190170412E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.7176782581477588E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.7085385797204011E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.5742301379080318E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.5673149366191056E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.508150341294843E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.3788364175038819E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.5433442255088742E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.3716768322791421E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.1293795635651962E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.1681597488379365E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.0572207905251518E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.8908554049160794E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.9162946492697768E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.7681745602436554E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.5992514120903814E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.429237670877724E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.8508550793664009E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.2898388170502095E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.9316072328216606E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.893127168757892E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.8201944854355588E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.8447580454376157E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.7214949347369447E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.8453336337846882E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.9697770496739879E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.9290719732377163E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.1302240788334061E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.2004571290218257E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.1876724633471098E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.328966069728173E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.2556245133290924E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.2872284007083604E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.3735267838196724E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.3394680570104329E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.4606780568038829E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.4946633353716614E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.4124466704148934E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.3799515932903301E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.3296683256858031E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.3918184521332411E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.4091117544688176E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.3351510058890512E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3782129547572779E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.273687846860665E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.2644912666332499E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.1487621698669403E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.1663542809679015E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.0758758033388188E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.0858695381515431E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.1026425001675733E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.9988781991368381E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.9469314919347316E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.8963520757587852E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.848517938902083E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.7797558508033567E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.8016555151375361E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.8201339645863265E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.7064257970738143E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.8503151028078612E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.77366827523868E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.7230275836111849E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.6881001365972845E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.7130837403329528E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.6148700355761845E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.6113465133546667E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.5873831354807972E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.6597665766488469E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.5605453141284516E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.5647860141302746E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.5786765052543161E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.5489652225557285E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.4513442680272717E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.487095336315341E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.4857789018849419E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.4226858306478309E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.4639689977195863E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.4531988251961252E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.3790638486146784E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.434128905813412E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.3765789350958323E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.3352410830437127E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.3516196586810023E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.3073320402957317E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.2720415226734608E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6.2995808968622892E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.259659594475101E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6.3367662076464128E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.2991148080265682E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6.2544916581977429E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.2771097461587289E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.2567013816265402E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.2045223454589024E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.0847723418823163E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6.0724664794436509E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.9490299114952506E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.0007436985284679E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.9840755184877269E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5.9304218509144092E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5.9136920932782661E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5.910237972692905E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5.8223200070897842E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5.8415590661698999E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5.7767577353661009E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.8585290585320545E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5.7545087594091989E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5.81023776501701E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5.76365048949792E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5.8319717333103005E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5.7548595294238235E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.8534766556899483E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.8331122653898816E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.7998271170779034E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.9143976974953879E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.9789845250055691E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F7B-E647-8341-DD68B1678810}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1226586159"/>
+        <c:axId val="1232937167"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1226586159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1232937167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1232937167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1226586159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>元データ!$I$61:$I$199</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="139"/>
+                <c:pt idx="0">
+                  <c:v>89.980968226422306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.801969041129396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.115413576096898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.817081600608702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102.51874962511999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102.205305090153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.070859740478596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.190192530673798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.742302646031803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.921301831324698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.294412761389694</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89.667523691454804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.040634621519899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.667523691454804</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90.921301831324698</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93.115413576096898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94.369191715966707</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95.622969855836502</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96.876747995706395</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>98.443970670543607</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99.070859740478596</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99.384304275445999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100.638082415315</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100.32463788034801</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100.638082415315</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100.638082415315</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100.638082415315</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>101.891860555185</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>102.83219416008799</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>104.39941683492501</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>104.39941683492501</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>105.02630590486</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>104.712861369892</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>105.02630590486</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>105.02630590486</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>105.02630590486</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>105.653194974795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>105.339750439827</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>105.653194974795</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>105.653194974795</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>105.966639509762</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>105.966639509762</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>105.966639509762</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>106.28008404473</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>106.28008404473</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>105.653194974795</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>103.459083230023</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99.697748810413501</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>97.190192530673798</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>94.682636250934095</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>89.040634621519899</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>86.533078341780296</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>83.712077527073106</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>80.264187642431096</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>76.502853222821599</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>75.249075082951805</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>72.114629733277198</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>70.2339625234724</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>67.726406243732796</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>67.726406243732796</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67.412961708765295</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66.786072638830404</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>66.786072638830404</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>67.099517173797906</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67.412961708765295</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.786072638830404</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.726406243732796</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>71.174296128374806</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>74.935630547984303</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76.189408687854097</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77.129742292756504</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78.070075897658896</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77.443186827724006</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75.249075082951805</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>72.4280742682447</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>70.860851593407403</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>70.547407058439902</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>70.2339625234724</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>70.547407058439902</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>69.607073453537495</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>69.920517988504997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>69.607073453537595</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>68.666739848635103</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>68.039850778700199</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>67.412961708765295</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>67.099517173797807</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>66.472628103862903</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>65.218849963993094</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>63.965071824123299</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>62.711293684253398</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>61.457515544383597</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>60.203737404513802</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>59.576848334578898</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>59.263403799611403</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>58.949959264644001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>58.009625659741602</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>57.382736589806697</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>57.069292054839202</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>57.382736589806598</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>57.382736589806697</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>58.323070194708997</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>58.949959264644001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>59.263403799611403</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>61.457515544383597</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>62.397849149286003</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>63.651627289155797</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>64.278516359090801</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>64.278516359090801</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>64.905405429025706</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>66.1591835688955</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>66.786072638830404</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>66.786072638830404</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>66.786072638830404</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>66.786072638830404</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>66.472628103863002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>66.1591835688955</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>65.845739033928098</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>65.845739033928098</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>65.845739033927998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>66.1591835688955</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>66.472628103862903</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>66.786072638830404</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>66.786072638830404</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>66.786072638830404</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>66.786072638830404</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>66.786072638830404</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>66.472628103862903</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>66.1591835688955</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>65.845739033927998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>65.845739033928098</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>65.845739033927998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>65.845739033927998</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>65.845739033927998</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>65.532294498960596</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>64.591960894058204</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>64.278516359090801</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>63.0247382192209</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>62.711293684253398</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>62.084404614318501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD51-874A-B6A4-DF370320E660}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1277477551"/>
+        <c:axId val="1277479183"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1277477551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1277479183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1277479183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1277477551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>元データ!$J$98:$J$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>109.74746839095801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.26553572713399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108.970367386695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108.970367386695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107.15713171007999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.97645834832301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.494525684499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103.53066035685001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.090953327005707</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86.434438263052797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74.518889531012107</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.115317173518804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.302081496903895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.488845820289001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.675610143674206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.121408135147099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.753970450005198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.278128747809099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.356489054140098</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.061320713700901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.543253377525197</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43.952916696646803</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42.657748356207598</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41.103546347680499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43.434849360471098</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46.543253377525197</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50.687792066930697</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52.760061411633401</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>55.8684654286875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57.681701105302402</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59.753970450005099</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65.970778484113296</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>67.784014160728205</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68.8201488330796</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70.115317173518804</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71.410485513957994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71.928552850133698</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>72.964687522485093</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>74.259855862924297</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>74.777923199100002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>74.777923199100002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>74.518889531012107</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>73.223721190572903</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70.892418177782403</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67.265946824552501</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58.458802109565902</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53.537162415896901</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49.651657394579303</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.651657394579303</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.651657394579303</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>49.910691062667198</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50.169724730755</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50.687792066930697</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>49.392623726491401</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>48.356489054140098</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>47.061320713700901</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>46.543253377525197</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>47.838421717964401</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>49.910691062667198</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>48.615522722227901</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>48.615522722228</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>49.651657394579303</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>51.205859403106402</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>51.464893071194197</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>50.9468257350185</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>48.874556390315803</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>46.0251860413495</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43.693883028558901</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42.916782024295401</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42.398714688119703</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42.139681020031901</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42.657748356207598</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42.916782024295401</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42.916782024295401</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43.693883028558901</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43.434849360471098</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42.139681020031901</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40.067411675329197</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>39.031277002977703</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>37.9951423306264</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>36.440940322099301</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>33.332536305045302</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>30.742199624166801</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>29.187997615639802</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>28.669930279464101</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28.1518629432884</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>27.892829275200501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D2F-744D-B502-C5A9A4A2925A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1233068719"/>
+        <c:axId val="1233065615"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1233068719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1233065615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1233065615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1233068719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2773,6 +4676,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4837,20 +6860,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>739297</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>176526</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>340732</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>139392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>54095</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>76275</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>782022</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>45301</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4978,6 +8549,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6194</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>208156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464633</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>232317</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009F9039-3EA1-294B-8A01-4EE108DF4E8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2174487</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>37788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>867316</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>232316</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ACF293B-DEBA-AA4E-BC5A-CA1556E9BA71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>796074</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>37790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>566854</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>55136</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="グラフ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC44DDD-D6DF-EA47-BD87-79B38E0B603B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5285,8 +8964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201083BE-F943-2C42-9F81-81E38B44A9E5}">
   <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="82" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11658,10 +15337,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD7738C-2A79-9E44-8489-03F493A35CD5}">
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView topLeftCell="D42" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -12312,7 +15991,7 @@
         <v>0.69237768210515505</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:19">
       <c r="A49" s="4" t="s">
         <v>14</v>
       </c>
@@ -12320,20 +15999,40 @@
         <v>9.2586236016184813</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="21" thickBot="1">
+    <row r="50" spans="1:19" ht="21" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="5">
         <v>139</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="21" thickBot="1">
+      <c r="N50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="L51">
+        <v>1.1619691644543509E-2</v>
+      </c>
+      <c r="M51">
+        <v>97.817081600608702</v>
+      </c>
+      <c r="N51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="21" thickBot="1">
       <c r="A52" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="L52">
+        <v>1.14580339239007E-2</v>
+      </c>
+      <c r="M52">
+        <v>102.51874962511999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
         <v>21</v>
@@ -12350,8 +16049,18 @@
       <c r="F53" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="L53">
+        <v>1.1276117363049511E-2</v>
+      </c>
+      <c r="M53">
+        <v>102.205305090153</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="4" t="s">
         <v>17</v>
       </c>
@@ -12370,8 +16079,20 @@
       <c r="F54" s="4">
         <v>5.6765050270381352E-36</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="L54">
+        <v>1.1191711013953791E-2</v>
+      </c>
+      <c r="M54">
+        <v>99.070859740478596</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O54" s="4">
+        <v>0.87639745625964138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="4" t="s">
         <v>18</v>
       </c>
@@ -12386,8 +16107,20 @@
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" ht="21" thickBot="1">
+      <c r="L55">
+        <v>1.1379159962873002E-2</v>
+      </c>
+      <c r="M55">
+        <v>97.190192530673798</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O55" s="4">
+        <v>0.76807250133837002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="21" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>19</v>
       </c>
@@ -12400,9 +16133,34 @@
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:9" ht="21" thickBot="1"/>
-    <row r="58" spans="1:9">
+      <c r="L56">
+        <v>1.1284030198495129E-2</v>
+      </c>
+      <c r="M56">
+        <v>93.742302646031803</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O56" s="4">
+        <v>0.76634169910955185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="21" thickBot="1">
+      <c r="L57">
+        <v>1.1210423076055673E-2</v>
+      </c>
+      <c r="M57">
+        <v>90.921301831324698</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O57" s="4">
+        <v>8.1016178276528734</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="21" thickBot="1">
       <c r="A58" s="6"/>
       <c r="B58" s="6" t="s">
         <v>26</v>
@@ -12428,8 +16186,20 @@
       <c r="I58" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="L58">
+        <v>1.0991111341806768E-2</v>
+      </c>
+      <c r="M58">
+        <v>90.294412761389694</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O58" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="4" t="s">
         <v>20</v>
       </c>
@@ -12457,8 +16227,14 @@
       <c r="I59" s="4">
         <v>26.716371255490422</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="L59">
+        <v>1.1037453098618342E-2</v>
+      </c>
+      <c r="M59">
+        <v>89.667523691454804</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="21" thickBot="1">
       <c r="A60" s="4" t="s">
         <v>33</v>
       </c>
@@ -12486,8 +16262,17 @@
       <c r="I60" s="4">
         <v>8623.4770331001782</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="21" thickBot="1">
+      <c r="L60">
+        <v>1.100249578589311E-2</v>
+      </c>
+      <c r="M60">
+        <v>89.040634621519899</v>
+      </c>
+      <c r="N60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="21" thickBot="1">
       <c r="A61" s="5" t="s">
         <v>34</v>
       </c>
@@ -12514,6 +16299,1151 @@
       </c>
       <c r="I61" s="5">
         <v>7.8513683390277478E-2</v>
+      </c>
+      <c r="L61">
+        <v>1.0989650220723986E-2</v>
+      </c>
+      <c r="M61">
+        <v>89.667523691454804</v>
+      </c>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S61" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="L62">
+        <v>1.1009297654284033E-2</v>
+      </c>
+      <c r="M62">
+        <v>90.921301831324698</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O62" s="4">
+        <v>1</v>
+      </c>
+      <c r="P62" s="4">
+        <v>29127.169036673586</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>29127.169036673586</v>
+      </c>
+      <c r="R62" s="4">
+        <v>443.76676234282564</v>
+      </c>
+      <c r="S62" s="4">
+        <v>2.3578578018914159E-44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="L63">
+        <v>1.1165554585977072E-2</v>
+      </c>
+      <c r="M63">
+        <v>93.115413576096898</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O63" s="4">
+        <v>134</v>
+      </c>
+      <c r="P63" s="4">
+        <v>8795.2523309959433</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>65.636211425342864</v>
+      </c>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+    </row>
+    <row r="64" spans="1:19" ht="21" thickBot="1">
+      <c r="L64">
+        <v>1.0974443401239512E-2</v>
+      </c>
+      <c r="M64">
+        <v>94.369191715966707</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O64" s="5">
+        <v>135</v>
+      </c>
+      <c r="P64" s="5">
+        <v>37922.421367669529</v>
+      </c>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+    </row>
+    <row r="65" spans="12:22" ht="21" thickBot="1">
+      <c r="L65">
+        <v>1.0928102978012564E-2</v>
+      </c>
+      <c r="M65">
+        <v>95.622969855836502</v>
+      </c>
+    </row>
+    <row r="66" spans="12:22">
+      <c r="L66">
+        <v>1.0936069182206772E-2</v>
+      </c>
+      <c r="M66">
+        <v>96.876747995706395</v>
+      </c>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q66" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R66" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T66" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U66" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V66" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="12:22">
+      <c r="L67">
+        <v>1.0805758088385204E-2</v>
+      </c>
+      <c r="M67">
+        <v>98.443970670543607</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="4">
+        <v>13.799323189696906</v>
+      </c>
+      <c r="P67" s="4">
+        <v>3.1522031980622183</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>4.3776756518043909</v>
+      </c>
+      <c r="R67" s="4">
+        <v>2.3955010567687073E-5</v>
+      </c>
+      <c r="S67" s="4">
+        <v>7.5648145098448412</v>
+      </c>
+      <c r="T67" s="4">
+        <v>20.033831869548973</v>
+      </c>
+      <c r="U67" s="4">
+        <v>7.5648145098448412</v>
+      </c>
+      <c r="V67" s="4">
+        <v>20.033831869548973</v>
+      </c>
+    </row>
+    <row r="68" spans="12:22" ht="21" thickBot="1">
+      <c r="L68">
+        <v>1.0685515063175827E-2</v>
+      </c>
+      <c r="M68">
+        <v>99.070859740478596</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O68" s="5">
+        <v>8183.9208974144958</v>
+      </c>
+      <c r="P68" s="5">
+        <v>388.49375105720247</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>21.065772294003981</v>
+      </c>
+      <c r="R68" s="5">
+        <v>2.3578578018914154E-44</v>
+      </c>
+      <c r="S68" s="5">
+        <v>7415.5479497176739</v>
+      </c>
+      <c r="T68" s="5">
+        <v>8952.2938451113187</v>
+      </c>
+      <c r="U68" s="5">
+        <v>7415.5479497176739</v>
+      </c>
+      <c r="V68" s="5">
+        <v>8952.2938451113187</v>
+      </c>
+    </row>
+    <row r="69" spans="12:22">
+      <c r="L69">
+        <v>1.0656442696920435E-2</v>
+      </c>
+      <c r="M69">
+        <v>99.384304275445999</v>
+      </c>
+    </row>
+    <row r="70" spans="12:22">
+      <c r="L70">
+        <v>1.0398628933410396E-2</v>
+      </c>
+      <c r="M70">
+        <v>100.638082415315</v>
+      </c>
+    </row>
+    <row r="71" spans="12:22">
+      <c r="L71">
+        <v>1.0413981134418385E-2</v>
+      </c>
+      <c r="M71">
+        <v>100.32463788034801</v>
+      </c>
+    </row>
+    <row r="72" spans="12:22">
+      <c r="L72">
+        <v>1.0418868002624967E-2</v>
+      </c>
+      <c r="M72">
+        <v>100.638082415315</v>
+      </c>
+    </row>
+    <row r="73" spans="12:22">
+      <c r="L73">
+        <v>1.0296540267406923E-2</v>
+      </c>
+      <c r="M73">
+        <v>100.638082415315</v>
+      </c>
+    </row>
+    <row r="74" spans="12:22">
+      <c r="L74">
+        <v>1.0341528262218996E-2</v>
+      </c>
+      <c r="M74">
+        <v>100.638082415315</v>
+      </c>
+    </row>
+    <row r="75" spans="12:22">
+      <c r="L75">
+        <v>1.0256347209098031E-2</v>
+      </c>
+      <c r="M75">
+        <v>101.891860555185</v>
+      </c>
+    </row>
+    <row r="76" spans="12:22">
+      <c r="L76">
+        <v>1.0179214460274614E-2</v>
+      </c>
+      <c r="M76">
+        <v>102.83219416008799</v>
+      </c>
+    </row>
+    <row r="77" spans="12:22">
+      <c r="L77">
+        <v>1.0095420239427449E-2</v>
+      </c>
+      <c r="M77">
+        <v>104.39941683492501</v>
+      </c>
+    </row>
+    <row r="78" spans="12:22">
+      <c r="L78">
+        <v>9.9943575599043266E-3</v>
+      </c>
+      <c r="M78">
+        <v>104.39941683492501</v>
+      </c>
+    </row>
+    <row r="79" spans="12:22">
+      <c r="L79">
+        <v>9.9163895956703007E-3</v>
+      </c>
+      <c r="M79">
+        <v>105.02630590486</v>
+      </c>
+    </row>
+    <row r="80" spans="12:22">
+      <c r="L80">
+        <v>9.8275693548032245E-3</v>
+      </c>
+      <c r="M80">
+        <v>104.712861369892</v>
+      </c>
+    </row>
+    <row r="81" spans="12:13">
+      <c r="L81">
+        <v>9.8021711190170412E-3</v>
+      </c>
+      <c r="M81">
+        <v>105.02630590486</v>
+      </c>
+    </row>
+    <row r="82" spans="12:13">
+      <c r="L82">
+        <v>9.7176782581477588E-3</v>
+      </c>
+      <c r="M82">
+        <v>105.02630590486</v>
+      </c>
+    </row>
+    <row r="83" spans="12:13">
+      <c r="L83">
+        <v>9.7085385797204011E-3</v>
+      </c>
+      <c r="M83">
+        <v>105.02630590486</v>
+      </c>
+    </row>
+    <row r="84" spans="12:13">
+      <c r="L84">
+        <v>9.5742301379080318E-3</v>
+      </c>
+      <c r="M84">
+        <v>105.653194974795</v>
+      </c>
+    </row>
+    <row r="85" spans="12:13">
+      <c r="L85">
+        <v>9.5673149366191056E-3</v>
+      </c>
+      <c r="M85">
+        <v>105.339750439827</v>
+      </c>
+    </row>
+    <row r="86" spans="12:13">
+      <c r="L86">
+        <v>9.508150341294843E-3</v>
+      </c>
+      <c r="M86">
+        <v>105.653194974795</v>
+      </c>
+    </row>
+    <row r="87" spans="12:13">
+      <c r="L87">
+        <v>9.3788364175038819E-3</v>
+      </c>
+      <c r="M87">
+        <v>105.653194974795</v>
+      </c>
+    </row>
+    <row r="88" spans="12:13">
+      <c r="L88">
+        <v>9.5433442255088742E-3</v>
+      </c>
+      <c r="M88">
+        <v>105.966639509762</v>
+      </c>
+    </row>
+    <row r="89" spans="12:13">
+      <c r="L89">
+        <v>9.3716768322791421E-3</v>
+      </c>
+      <c r="M89">
+        <v>105.966639509762</v>
+      </c>
+    </row>
+    <row r="90" spans="12:13">
+      <c r="L90">
+        <v>9.1293795635651962E-3</v>
+      </c>
+      <c r="M90">
+        <v>105.966639509762</v>
+      </c>
+    </row>
+    <row r="91" spans="12:13">
+      <c r="L91">
+        <v>9.1681597488379365E-3</v>
+      </c>
+      <c r="M91">
+        <v>106.28008404473</v>
+      </c>
+    </row>
+    <row r="92" spans="12:13">
+      <c r="L92">
+        <v>9.0572207905251518E-3</v>
+      </c>
+      <c r="M92">
+        <v>106.28008404473</v>
+      </c>
+    </row>
+    <row r="93" spans="12:13">
+      <c r="L93">
+        <v>8.8908554049160794E-3</v>
+      </c>
+      <c r="M93">
+        <v>105.653194974795</v>
+      </c>
+    </row>
+    <row r="94" spans="12:13">
+      <c r="L94">
+        <v>8.9162946492697768E-3</v>
+      </c>
+      <c r="M94">
+        <v>103.459083230023</v>
+      </c>
+    </row>
+    <row r="95" spans="12:13">
+      <c r="L95">
+        <v>8.7681745602436554E-3</v>
+      </c>
+      <c r="M95">
+        <v>99.697748810413501</v>
+      </c>
+    </row>
+    <row r="96" spans="12:13">
+      <c r="L96">
+        <v>8.5992514120903814E-3</v>
+      </c>
+      <c r="M96">
+        <v>97.190192530673798</v>
+      </c>
+    </row>
+    <row r="97" spans="12:13">
+      <c r="L97">
+        <v>8.429237670877724E-3</v>
+      </c>
+      <c r="M97">
+        <v>94.682636250934095</v>
+      </c>
+    </row>
+    <row r="98" spans="12:13">
+      <c r="L98">
+        <v>7.8508550793664009E-3</v>
+      </c>
+      <c r="M98">
+        <v>89.040634621519899</v>
+      </c>
+    </row>
+    <row r="99" spans="12:13">
+      <c r="L99">
+        <v>7.2898388170502095E-3</v>
+      </c>
+      <c r="M99">
+        <v>86.533078341780296</v>
+      </c>
+    </row>
+    <row r="100" spans="12:13">
+      <c r="L100">
+        <v>6.9316072328216606E-3</v>
+      </c>
+      <c r="M100">
+        <v>83.712077527073106</v>
+      </c>
+    </row>
+    <row r="101" spans="12:13">
+      <c r="L101">
+        <v>6.893127168757892E-3</v>
+      </c>
+      <c r="M101">
+        <v>80.264187642431096</v>
+      </c>
+    </row>
+    <row r="102" spans="12:13">
+      <c r="L102">
+        <v>6.8201944854355588E-3</v>
+      </c>
+      <c r="M102">
+        <v>76.502853222821599</v>
+      </c>
+    </row>
+    <row r="103" spans="12:13">
+      <c r="L103">
+        <v>6.8447580454376157E-3</v>
+      </c>
+      <c r="M103">
+        <v>75.249075082951805</v>
+      </c>
+    </row>
+    <row r="104" spans="12:13">
+      <c r="L104">
+        <v>6.7214949347369447E-3</v>
+      </c>
+      <c r="M104">
+        <v>72.114629733277198</v>
+      </c>
+    </row>
+    <row r="105" spans="12:13">
+      <c r="L105">
+        <v>6.8453336337846882E-3</v>
+      </c>
+      <c r="M105">
+        <v>70.2339625234724</v>
+      </c>
+    </row>
+    <row r="106" spans="12:13">
+      <c r="L106">
+        <v>6.9697770496739879E-3</v>
+      </c>
+      <c r="M106">
+        <v>67.726406243732796</v>
+      </c>
+    </row>
+    <row r="107" spans="12:13">
+      <c r="L107">
+        <v>6.9290719732377163E-3</v>
+      </c>
+      <c r="M107">
+        <v>67.726406243732796</v>
+      </c>
+    </row>
+    <row r="108" spans="12:13">
+      <c r="L108">
+        <v>7.1302240788334061E-3</v>
+      </c>
+      <c r="M108">
+        <v>67.412961708765295</v>
+      </c>
+    </row>
+    <row r="109" spans="12:13">
+      <c r="L109">
+        <v>7.2004571290218257E-3</v>
+      </c>
+      <c r="M109">
+        <v>66.786072638830404</v>
+      </c>
+    </row>
+    <row r="110" spans="12:13">
+      <c r="L110">
+        <v>7.1876724633471098E-3</v>
+      </c>
+      <c r="M110">
+        <v>66.786072638830404</v>
+      </c>
+    </row>
+    <row r="111" spans="12:13">
+      <c r="L111">
+        <v>7.328966069728173E-3</v>
+      </c>
+      <c r="M111">
+        <v>67.099517173797906</v>
+      </c>
+    </row>
+    <row r="112" spans="12:13">
+      <c r="L112">
+        <v>7.2556245133290924E-3</v>
+      </c>
+      <c r="M112">
+        <v>67.412961708765295</v>
+      </c>
+    </row>
+    <row r="113" spans="12:13">
+      <c r="L113">
+        <v>7.2872284007083604E-3</v>
+      </c>
+      <c r="M113">
+        <v>66.786072638830404</v>
+      </c>
+    </row>
+    <row r="114" spans="12:13">
+      <c r="L114">
+        <v>7.3735267838196724E-3</v>
+      </c>
+      <c r="M114">
+        <v>67.726406243732796</v>
+      </c>
+    </row>
+    <row r="115" spans="12:13">
+      <c r="L115">
+        <v>7.3394680570104329E-3</v>
+      </c>
+      <c r="M115">
+        <v>71.174296128374806</v>
+      </c>
+    </row>
+    <row r="116" spans="12:13">
+      <c r="L116">
+        <v>7.4606780568038829E-3</v>
+      </c>
+      <c r="M116">
+        <v>74.935630547984303</v>
+      </c>
+    </row>
+    <row r="117" spans="12:13">
+      <c r="L117">
+        <v>7.4946633353716614E-3</v>
+      </c>
+      <c r="M117">
+        <v>76.189408687854097</v>
+      </c>
+    </row>
+    <row r="118" spans="12:13">
+      <c r="L118">
+        <v>7.4124466704148934E-3</v>
+      </c>
+      <c r="M118">
+        <v>77.129742292756504</v>
+      </c>
+    </row>
+    <row r="119" spans="12:13">
+      <c r="L119">
+        <v>7.3799515932903301E-3</v>
+      </c>
+      <c r="M119">
+        <v>78.070075897658896</v>
+      </c>
+    </row>
+    <row r="120" spans="12:13">
+      <c r="L120">
+        <v>7.3296683256858031E-3</v>
+      </c>
+      <c r="M120">
+        <v>77.443186827724006</v>
+      </c>
+    </row>
+    <row r="121" spans="12:13">
+      <c r="L121">
+        <v>7.3918184521332411E-3</v>
+      </c>
+      <c r="M121">
+        <v>75.249075082951805</v>
+      </c>
+    </row>
+    <row r="122" spans="12:13">
+      <c r="L122">
+        <v>7.4091117544688176E-3</v>
+      </c>
+      <c r="M122">
+        <v>72.4280742682447</v>
+      </c>
+    </row>
+    <row r="123" spans="12:13">
+      <c r="L123">
+        <v>7.3351510058890512E-3</v>
+      </c>
+      <c r="M123">
+        <v>70.860851593407403</v>
+      </c>
+    </row>
+    <row r="124" spans="12:13">
+      <c r="L124">
+        <v>7.3782129547572779E-3</v>
+      </c>
+      <c r="M124">
+        <v>70.547407058439902</v>
+      </c>
+    </row>
+    <row r="125" spans="12:13">
+      <c r="L125">
+        <v>7.273687846860665E-3</v>
+      </c>
+      <c r="M125">
+        <v>70.2339625234724</v>
+      </c>
+    </row>
+    <row r="126" spans="12:13">
+      <c r="L126">
+        <v>7.2644912666332499E-3</v>
+      </c>
+      <c r="M126">
+        <v>70.547407058439902</v>
+      </c>
+    </row>
+    <row r="127" spans="12:13">
+      <c r="L127">
+        <v>7.1487621698669403E-3</v>
+      </c>
+      <c r="M127">
+        <v>69.607073453537495</v>
+      </c>
+    </row>
+    <row r="128" spans="12:13">
+      <c r="L128">
+        <v>7.1663542809679015E-3</v>
+      </c>
+      <c r="M128">
+        <v>69.920517988504997</v>
+      </c>
+    </row>
+    <row r="129" spans="12:13">
+      <c r="L129">
+        <v>7.0758758033388188E-3</v>
+      </c>
+      <c r="M129">
+        <v>69.607073453537595</v>
+      </c>
+    </row>
+    <row r="130" spans="12:13">
+      <c r="L130">
+        <v>7.0858695381515431E-3</v>
+      </c>
+      <c r="M130">
+        <v>68.666739848635103</v>
+      </c>
+    </row>
+    <row r="131" spans="12:13">
+      <c r="L131">
+        <v>7.1026425001675733E-3</v>
+      </c>
+      <c r="M131">
+        <v>68.039850778700199</v>
+      </c>
+    </row>
+    <row r="132" spans="12:13">
+      <c r="L132">
+        <v>6.9988781991368381E-3</v>
+      </c>
+      <c r="M132">
+        <v>67.412961708765295</v>
+      </c>
+    </row>
+    <row r="133" spans="12:13">
+      <c r="L133">
+        <v>6.9469314919347316E-3</v>
+      </c>
+      <c r="M133">
+        <v>67.099517173797807</v>
+      </c>
+    </row>
+    <row r="134" spans="12:13">
+      <c r="L134">
+        <v>6.8963520757587852E-3</v>
+      </c>
+      <c r="M134">
+        <v>66.472628103862903</v>
+      </c>
+    </row>
+    <row r="135" spans="12:13">
+      <c r="L135">
+        <v>6.848517938902083E-3</v>
+      </c>
+      <c r="M135">
+        <v>65.218849963993094</v>
+      </c>
+    </row>
+    <row r="136" spans="12:13">
+      <c r="L136">
+        <v>6.7797558508033567E-3</v>
+      </c>
+      <c r="M136">
+        <v>63.965071824123299</v>
+      </c>
+    </row>
+    <row r="137" spans="12:13">
+      <c r="L137">
+        <v>6.8016555151375361E-3</v>
+      </c>
+      <c r="M137">
+        <v>62.711293684253398</v>
+      </c>
+    </row>
+    <row r="138" spans="12:13">
+      <c r="L138">
+        <v>6.8201339645863265E-3</v>
+      </c>
+      <c r="M138">
+        <v>61.457515544383597</v>
+      </c>
+    </row>
+    <row r="139" spans="12:13">
+      <c r="L139">
+        <v>6.7064257970738143E-3</v>
+      </c>
+      <c r="M139">
+        <v>60.203737404513802</v>
+      </c>
+    </row>
+    <row r="140" spans="12:13">
+      <c r="L140">
+        <v>6.8503151028078612E-3</v>
+      </c>
+      <c r="M140">
+        <v>59.576848334578898</v>
+      </c>
+    </row>
+    <row r="141" spans="12:13">
+      <c r="L141">
+        <v>6.77366827523868E-3</v>
+      </c>
+      <c r="M141">
+        <v>59.263403799611403</v>
+      </c>
+    </row>
+    <row r="142" spans="12:13">
+      <c r="L142">
+        <v>6.7230275836111849E-3</v>
+      </c>
+      <c r="M142">
+        <v>58.949959264644001</v>
+      </c>
+    </row>
+    <row r="143" spans="12:13">
+      <c r="L143">
+        <v>6.6881001365972845E-3</v>
+      </c>
+      <c r="M143">
+        <v>58.009625659741602</v>
+      </c>
+    </row>
+    <row r="144" spans="12:13">
+      <c r="L144">
+        <v>6.7130837403329528E-3</v>
+      </c>
+      <c r="M144">
+        <v>57.382736589806697</v>
+      </c>
+    </row>
+    <row r="145" spans="12:13">
+      <c r="L145">
+        <v>6.6148700355761845E-3</v>
+      </c>
+      <c r="M145">
+        <v>57.069292054839202</v>
+      </c>
+    </row>
+    <row r="146" spans="12:13">
+      <c r="L146">
+        <v>6.6113465133546667E-3</v>
+      </c>
+      <c r="M146">
+        <v>57.382736589806598</v>
+      </c>
+    </row>
+    <row r="147" spans="12:13">
+      <c r="L147">
+        <v>6.5873831354807972E-3</v>
+      </c>
+      <c r="M147">
+        <v>57.382736589806697</v>
+      </c>
+    </row>
+    <row r="148" spans="12:13">
+      <c r="L148">
+        <v>6.6597665766488469E-3</v>
+      </c>
+      <c r="M148">
+        <v>58.323070194708997</v>
+      </c>
+    </row>
+    <row r="149" spans="12:13">
+      <c r="L149">
+        <v>6.5605453141284516E-3</v>
+      </c>
+      <c r="M149">
+        <v>58.949959264644001</v>
+      </c>
+    </row>
+    <row r="150" spans="12:13">
+      <c r="L150">
+        <v>6.5647860141302746E-3</v>
+      </c>
+      <c r="M150">
+        <v>59.263403799611403</v>
+      </c>
+    </row>
+    <row r="151" spans="12:13">
+      <c r="L151">
+        <v>6.5786765052543161E-3</v>
+      </c>
+      <c r="M151">
+        <v>61.457515544383597</v>
+      </c>
+    </row>
+    <row r="152" spans="12:13">
+      <c r="L152">
+        <v>6.5489652225557285E-3</v>
+      </c>
+      <c r="M152">
+        <v>62.397849149286003</v>
+      </c>
+    </row>
+    <row r="153" spans="12:13">
+      <c r="L153">
+        <v>6.4513442680272717E-3</v>
+      </c>
+      <c r="M153">
+        <v>63.651627289155797</v>
+      </c>
+    </row>
+    <row r="154" spans="12:13">
+      <c r="L154">
+        <v>6.487095336315341E-3</v>
+      </c>
+      <c r="M154">
+        <v>64.278516359090801</v>
+      </c>
+    </row>
+    <row r="155" spans="12:13">
+      <c r="L155">
+        <v>6.4857789018849419E-3</v>
+      </c>
+      <c r="M155">
+        <v>64.278516359090801</v>
+      </c>
+    </row>
+    <row r="156" spans="12:13">
+      <c r="L156">
+        <v>6.4226858306478309E-3</v>
+      </c>
+      <c r="M156">
+        <v>64.905405429025706</v>
+      </c>
+    </row>
+    <row r="157" spans="12:13">
+      <c r="L157">
+        <v>6.4639689977195863E-3</v>
+      </c>
+      <c r="M157">
+        <v>66.1591835688955</v>
+      </c>
+    </row>
+    <row r="158" spans="12:13">
+      <c r="L158">
+        <v>6.4531988251961252E-3</v>
+      </c>
+      <c r="M158">
+        <v>66.786072638830404</v>
+      </c>
+    </row>
+    <row r="159" spans="12:13">
+      <c r="L159">
+        <v>6.3790638486146784E-3</v>
+      </c>
+      <c r="M159">
+        <v>66.786072638830404</v>
+      </c>
+    </row>
+    <row r="160" spans="12:13">
+      <c r="L160">
+        <v>6.434128905813412E-3</v>
+      </c>
+      <c r="M160">
+        <v>66.786072638830404</v>
+      </c>
+    </row>
+    <row r="161" spans="12:13">
+      <c r="L161">
+        <v>6.3765789350958323E-3</v>
+      </c>
+      <c r="M161">
+        <v>66.786072638830404</v>
+      </c>
+    </row>
+    <row r="162" spans="12:13">
+      <c r="L162">
+        <v>6.3352410830437127E-3</v>
+      </c>
+      <c r="M162">
+        <v>66.472628103863002</v>
+      </c>
+    </row>
+    <row r="163" spans="12:13">
+      <c r="L163">
+        <v>6.3516196586810023E-3</v>
+      </c>
+      <c r="M163">
+        <v>66.1591835688955</v>
+      </c>
+    </row>
+    <row r="164" spans="12:13">
+      <c r="L164">
+        <v>6.3073320402957317E-3</v>
+      </c>
+      <c r="M164">
+        <v>65.845739033928098</v>
+      </c>
+    </row>
+    <row r="165" spans="12:13">
+      <c r="L165">
+        <v>6.2720415226734608E-3</v>
+      </c>
+      <c r="M165">
+        <v>65.845739033928098</v>
+      </c>
+    </row>
+    <row r="166" spans="12:13">
+      <c r="L166">
+        <v>6.2995808968622892E-3</v>
+      </c>
+      <c r="M166">
+        <v>65.845739033927998</v>
+      </c>
+    </row>
+    <row r="167" spans="12:13">
+      <c r="L167">
+        <v>6.259659594475101E-3</v>
+      </c>
+      <c r="M167">
+        <v>66.1591835688955</v>
+      </c>
+    </row>
+    <row r="168" spans="12:13">
+      <c r="L168">
+        <v>6.3367662076464128E-3</v>
+      </c>
+      <c r="M168">
+        <v>66.472628103862903</v>
+      </c>
+    </row>
+    <row r="169" spans="12:13">
+      <c r="L169">
+        <v>6.2991148080265682E-3</v>
+      </c>
+      <c r="M169">
+        <v>66.786072638830404</v>
+      </c>
+    </row>
+    <row r="170" spans="12:13">
+      <c r="L170">
+        <v>6.2544916581977429E-3</v>
+      </c>
+      <c r="M170">
+        <v>66.786072638830404</v>
+      </c>
+    </row>
+    <row r="171" spans="12:13">
+      <c r="L171">
+        <v>6.2771097461587289E-3</v>
+      </c>
+      <c r="M171">
+        <v>66.786072638830404</v>
+      </c>
+    </row>
+    <row r="172" spans="12:13">
+      <c r="L172">
+        <v>6.2567013816265402E-3</v>
+      </c>
+      <c r="M172">
+        <v>66.786072638830404</v>
+      </c>
+    </row>
+    <row r="173" spans="12:13">
+      <c r="L173">
+        <v>6.2045223454589024E-3</v>
+      </c>
+      <c r="M173">
+        <v>66.786072638830404</v>
+      </c>
+    </row>
+    <row r="174" spans="12:13">
+      <c r="L174">
+        <v>6.0847723418823163E-3</v>
+      </c>
+      <c r="M174">
+        <v>66.472628103862903</v>
+      </c>
+    </row>
+    <row r="175" spans="12:13">
+      <c r="L175">
+        <v>6.0724664794436509E-3</v>
+      </c>
+      <c r="M175">
+        <v>66.1591835688955</v>
+      </c>
+    </row>
+    <row r="176" spans="12:13">
+      <c r="L176">
+        <v>5.9490299114952506E-3</v>
+      </c>
+      <c r="M176">
+        <v>65.845739033927998</v>
+      </c>
+    </row>
+    <row r="177" spans="12:13">
+      <c r="L177">
+        <v>6.0007436985284679E-3</v>
+      </c>
+      <c r="M177">
+        <v>65.845739033928098</v>
+      </c>
+    </row>
+    <row r="178" spans="12:13">
+      <c r="L178">
+        <v>5.9840755184877269E-3</v>
+      </c>
+      <c r="M178">
+        <v>65.845739033927998</v>
+      </c>
+    </row>
+    <row r="179" spans="12:13">
+      <c r="L179">
+        <v>5.9304218509144092E-3</v>
+      </c>
+      <c r="M179">
+        <v>65.845739033927998</v>
+      </c>
+    </row>
+    <row r="180" spans="12:13">
+      <c r="L180">
+        <v>5.9136920932782661E-3</v>
+      </c>
+      <c r="M180">
+        <v>65.845739033927998</v>
+      </c>
+    </row>
+    <row r="181" spans="12:13">
+      <c r="L181">
+        <v>5.910237972692905E-3</v>
+      </c>
+      <c r="M181">
+        <v>65.532294498960596</v>
+      </c>
+    </row>
+    <row r="182" spans="12:13">
+      <c r="L182">
+        <v>5.8223200070897842E-3</v>
+      </c>
+      <c r="M182">
+        <v>64.591960894058204</v>
+      </c>
+    </row>
+    <row r="183" spans="12:13">
+      <c r="L183">
+        <v>5.8415590661698999E-3</v>
+      </c>
+      <c r="M183">
+        <v>64.278516359090801</v>
+      </c>
+    </row>
+    <row r="184" spans="12:13">
+      <c r="L184">
+        <v>5.7767577353661009E-3</v>
+      </c>
+      <c r="M184">
+        <v>63.0247382192209</v>
+      </c>
+    </row>
+    <row r="185" spans="12:13">
+      <c r="L185">
+        <v>5.8585290585320545E-3</v>
+      </c>
+      <c r="M185">
+        <v>62.711293684253398</v>
+      </c>
+    </row>
+    <row r="186" spans="12:13">
+      <c r="L186">
+        <v>5.7545087594091989E-3</v>
+      </c>
+      <c r="M186">
+        <v>62.084404614318501</v>
       </c>
     </row>
   </sheetData>
@@ -12526,8 +17456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778AA02C-85B6-8441-AC36-F432356D488B}">
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -12769,7 +17699,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B25" s="4">
         <v>0.9161870951639326</v>

--- a/data/correlation/regression.xlsx
+++ b/data/correlation/regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinoriokubo/Documents/simulator/data/correlation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11A321D-58EC-F64C-BA51-1A768E0D7190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C73E83B-F162-0043-9B1B-C979EB61A083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="460" windowWidth="25740" windowHeight="15860" xr2:uid="{CA90CC09-E6FD-5A43-8559-1E712E5E9A16}"/>
+    <workbookView xWindow="1260" yWindow="460" windowWidth="25740" windowHeight="15860" activeTab="4" xr2:uid="{CA90CC09-E6FD-5A43-8559-1E712E5E9A16}"/>
   </bookViews>
   <sheets>
     <sheet name="元データ" sheetId="1" r:id="rId1"/>
@@ -2345,2177 +2345,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>元データ!$M$61:$M$73</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.1619691644543509E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1165554585977072E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0256347209098031E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3788364175038819E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.2898388170502095E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.328966069728173E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.3351510058890512E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.848517938902083E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.5873831354807972E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.3790638486146784E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.2771097461587289E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.84156E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.9789845250055691E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EFA0-4549-AFED-59E6C01EE75E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="932608351"/>
-        <c:axId val="938556367"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="932608351"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="938556367"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="938556367"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="932608351"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>元データ!$E$61:$E$205</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="145"/>
-                <c:pt idx="0">
-                  <c:v>1.1619691644543509E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.14580339239007E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1276117363049511E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1191711013953791E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1379159962873002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1284030198495129E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1210423076055673E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0991111341806768E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1037453098618342E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.100249578589311E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0989650220723986E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1009297654284033E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1165554585977072E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0974443401239512E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0928102978012564E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0936069182206772E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0805758088385204E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0685515063175827E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0656442696920435E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0398628933410396E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0413981134418385E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.0418868002624967E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.0296540267406923E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.0341528262218996E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.0256347209098031E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.0179214460274614E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.0095420239427449E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.9943575599043266E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.9163895956703007E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.8275693548032245E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.8021711190170412E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.7176782581477588E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9.7085385797204011E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.5742301379080318E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.5673149366191056E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.508150341294843E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.3788364175038819E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.5433442255088742E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.3716768322791421E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9.1293795635651962E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.1681597488379365E-3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.0572207905251518E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8.8908554049160794E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8.9162946492697768E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8.7681745602436554E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>8.5992514120903814E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8.429237670877724E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.8508550793664009E-3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.2898388170502095E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6.9316072328216606E-3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.893127168757892E-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6.8201944854355588E-3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6.8447580454376157E-3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6.7214949347369447E-3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6.8453336337846882E-3</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6.9697770496739879E-3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.9290719732377163E-3</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7.1302240788334061E-3</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7.2004571290218257E-3</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.1876724633471098E-3</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>7.328966069728173E-3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7.2556245133290924E-3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7.2872284007083604E-3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7.3735267838196724E-3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7.3394680570104329E-3</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7.4606780568038829E-3</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>7.4946633353716614E-3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>7.4124466704148934E-3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>7.3799515932903301E-3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>7.3296683256858031E-3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7.3918184521332411E-3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7.4091117544688176E-3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7.3351510058890512E-3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7.3782129547572779E-3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7.273687846860665E-3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.2644912666332499E-3</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7.1487621698669403E-3</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7.1663542809679015E-3</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7.0758758033388188E-3</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7.0858695381515431E-3</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>7.1026425001675733E-3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6.9988781991368381E-3</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6.9469314919347316E-3</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6.8963520757587852E-3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>6.848517938902083E-3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>6.7797558508033567E-3</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>6.8016555151375361E-3</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>6.8201339645863265E-3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>6.7064257970738143E-3</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>6.8503151028078612E-3</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>6.77366827523868E-3</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>6.7230275836111849E-3</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>6.6881001365972845E-3</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>6.7130837403329528E-3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>6.6148700355761845E-3</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>6.6113465133546667E-3</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>6.5873831354807972E-3</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>6.6597665766488469E-3</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>6.5605453141284516E-3</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>6.5647860141302746E-3</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>6.5786765052543161E-3</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>6.5489652225557285E-3</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>6.4513442680272717E-3</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>6.487095336315341E-3</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>6.4857789018849419E-3</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>6.4226858306478309E-3</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>6.4639689977195863E-3</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>6.4531988251961252E-3</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>6.3790638486146784E-3</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>6.434128905813412E-3</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>6.3765789350958323E-3</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>6.3352410830437127E-3</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>6.3516196586810023E-3</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>6.3073320402957317E-3</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>6.2720415226734608E-3</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>6.2995808968622892E-3</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>6.259659594475101E-3</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>6.3367662076464128E-3</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>6.2991148080265682E-3</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>6.2544916581977429E-3</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>6.2771097461587289E-3</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>6.2567013816265402E-3</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>6.2045223454589024E-3</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>6.0847723418823163E-3</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>6.0724664794436509E-3</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>5.9490299114952506E-3</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>6.0007436985284679E-3</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>5.9840755184877269E-3</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>5.9304218509144092E-3</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>5.9136920932782661E-3</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>5.910237972692905E-3</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>5.8223200070897842E-3</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>5.8415590661698999E-3</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>5.7767577353661009E-3</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>5.8585290585320545E-3</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>5.7545087594091989E-3</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>5.81023776501701E-3</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>5.76365048949792E-3</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>5.8319717333103005E-3</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>5.7548595294238235E-3</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>5.8534766556899483E-3</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>5.8331122653898816E-3</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>5.7998271170779034E-3</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>5.9143976974953879E-3</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>5.9789845250055691E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1F7B-E647-8341-DD68B1678810}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1226586159"/>
-        <c:axId val="1232937167"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1226586159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1232937167"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1232937167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1226586159"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>元データ!$I$61:$I$199</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
-                <c:pt idx="0">
-                  <c:v>89.980968226422306</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>92.801969041129396</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>93.115413576096898</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.817081600608702</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>102.51874962511999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>102.205305090153</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>99.070859740478596</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>97.190192530673798</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>93.742302646031803</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90.921301831324698</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>90.294412761389694</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>89.667523691454804</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>89.040634621519899</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>89.667523691454804</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90.921301831324698</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>93.115413576096898</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>94.369191715966707</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>95.622969855836502</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>96.876747995706395</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>98.443970670543607</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>99.070859740478596</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>99.384304275445999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>100.638082415315</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>100.32463788034801</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>100.638082415315</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>100.638082415315</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100.638082415315</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>101.891860555185</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>102.83219416008799</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>104.39941683492501</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>104.39941683492501</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>105.02630590486</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>104.712861369892</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>105.02630590486</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>105.02630590486</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>105.02630590486</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>105.653194974795</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>105.339750439827</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>105.653194974795</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>105.653194974795</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>105.966639509762</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>105.966639509762</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>105.966639509762</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>106.28008404473</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>106.28008404473</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>105.653194974795</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>103.459083230023</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>99.697748810413501</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>97.190192530673798</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>94.682636250934095</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>89.040634621519899</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>86.533078341780296</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>83.712077527073106</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>80.264187642431096</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>76.502853222821599</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>75.249075082951805</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>72.114629733277198</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>70.2339625234724</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>67.726406243732796</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>67.726406243732796</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>67.412961708765295</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>66.786072638830404</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>66.786072638830404</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>67.099517173797906</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>67.412961708765295</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66.786072638830404</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67.726406243732796</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>71.174296128374806</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>74.935630547984303</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>76.189408687854097</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>77.129742292756504</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>78.070075897658896</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>77.443186827724006</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>75.249075082951805</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>72.4280742682447</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>70.860851593407403</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>70.547407058439902</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>70.2339625234724</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>70.547407058439902</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>69.607073453537495</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>69.920517988504997</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>69.607073453537595</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>68.666739848635103</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>68.039850778700199</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>67.412961708765295</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>67.099517173797807</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>66.472628103862903</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>65.218849963993094</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>63.965071824123299</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>62.711293684253398</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>61.457515544383597</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>60.203737404513802</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>59.576848334578898</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>59.263403799611403</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>58.949959264644001</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>58.009625659741602</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>57.382736589806697</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>57.069292054839202</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>57.382736589806598</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>57.382736589806697</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>58.323070194708997</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>58.949959264644001</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>59.263403799611403</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>61.457515544383597</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>62.397849149286003</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>63.651627289155797</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>64.278516359090801</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>64.278516359090801</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>64.905405429025706</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>66.1591835688955</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>66.786072638830404</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>66.786072638830404</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>66.786072638830404</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>66.786072638830404</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>66.472628103863002</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>66.1591835688955</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>65.845739033928098</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>65.845739033928098</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>65.845739033927998</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>66.1591835688955</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>66.472628103862903</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>66.786072638830404</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>66.786072638830404</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>66.786072638830404</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>66.786072638830404</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>66.786072638830404</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>66.472628103862903</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>66.1591835688955</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>65.845739033927998</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>65.845739033928098</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>65.845739033927998</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>65.845739033927998</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>65.845739033927998</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>65.532294498960596</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>64.591960894058204</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>64.278516359090801</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>63.0247382192209</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>62.711293684253398</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>62.084404614318501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD51-874A-B6A4-DF370320E660}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1277477551"/>
-        <c:axId val="1277479183"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1277477551"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1277479183"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1277479183"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1277477551"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>元データ!$J$98:$J$197</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>109.74746839095801</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>110.26553572713399</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>108.970367386695</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>108.970367386695</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>107.15713171007999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>101.97645834832301</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>102.494525684499</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>103.53066035685001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>98.090953327005707</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>86.434438263052797</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>74.518889531012107</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>70.115317173518804</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>68.302081496903895</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>66.488845820289001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64.675610143674206</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>63.121408135147099</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>59.753970450005198</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>53.278128747809099</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48.356489054140098</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>47.061320713700901</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>46.543253377525197</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43.952916696646803</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42.657748356207598</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41.103546347680499</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43.434849360471098</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>46.543253377525197</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>50.687792066930697</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>52.760061411633401</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>55.8684654286875</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>57.681701105302402</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>59.753970450005099</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>65.970778484113296</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>67.784014160728205</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>68.8201488330796</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>70.115317173518804</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>71.410485513957994</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>71.928552850133698</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>72.964687522485093</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>74.259855862924297</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>74.777923199100002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>74.777923199100002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>74.518889531012107</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>73.223721190572903</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>70.892418177782403</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>67.265946824552501</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>58.458802109565902</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>53.537162415896901</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>49.651657394579303</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49.651657394579303</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49.651657394579303</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>49.910691062667198</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>50.169724730755</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>50.9468257350185</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>50.9468257350185</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>50.9468257350185</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>50.687792066930697</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>49.392623726491401</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>48.356489054140098</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>47.061320713700901</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>46.543253377525197</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>47.838421717964401</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>49.910691062667198</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>50.9468257350185</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>48.615522722227901</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>48.615522722228</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>49.651657394579303</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>50.9468257350185</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>51.205859403106402</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>51.464893071194197</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>50.9468257350185</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>48.874556390315803</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>46.0251860413495</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>43.693883028558901</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>42.916782024295401</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>42.398714688119703</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>42.139681020031901</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>42.657748356207598</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>42.916782024295401</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>42.916782024295401</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>43.693883028558901</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>43.434849360471098</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>42.139681020031901</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>40.067411675329197</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>39.031277002977703</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>37.9951423306264</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>36.440940322099301</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>33.332536305045302</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>30.742199624166801</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>29.187997615639802</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>28.669930279464101</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>28.1518629432884</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>27.892829275200501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8D2F-744D-B502-C5A9A4A2925A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1233068719"/>
-        <c:axId val="1233065615"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1233068719"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1233065615"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1233065615"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1233068719"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4597,166 +2426,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6344,2070 +4013,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8513,150 +4118,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>950951</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>53278</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>721732</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>70624</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5628A4D-1AC7-0443-9B79-389274542F8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6194</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>208156</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>464633</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>232317</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009F9039-3EA1-294B-8A01-4EE108DF4E8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2174487</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>37788</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>867316</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>232316</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="グラフ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ACF293B-DEBA-AA4E-BC5A-CA1556E9BA71}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>796074</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>37790</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>566854</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>55136</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="グラフ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC44DDD-D6DF-EA47-BD87-79B38E0B603B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8964,7 +4425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201083BE-F943-2C42-9F81-81E38B44A9E5}">
   <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="82" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScale="82" workbookViewId="0">
       <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
@@ -14843,7 +10304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF65EC8-324C-F342-B4E3-81DD72F250C0}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -15339,7 +10800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD7738C-2A79-9E44-8489-03F493A35CD5}">
   <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView topLeftCell="D42" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
@@ -17456,7 +12917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778AA02C-85B6-8441-AC36-F432356D488B}">
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
